--- a/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
+++ b/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954FA072-557B-4B1C-AD35-32F1A1902771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96971432-1EEF-43DC-9E0B-3FC798C6134A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="435" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -40,14 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="139">
   <si>
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>Agriculture, forestry and fishing</t>
   </si>
   <si>
-    <t>Mining and extraction of energy producing products</t>
-  </si>
-  <si>
     <t>Mining and quarrying of non-energy producing products</t>
   </si>
   <si>
@@ -451,6 +445,18 @@
   </si>
   <si>
     <t>Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>Coal mining</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction</t>
   </si>
 </sst>
 </file>
@@ -1225,6 +1231,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1256,7 +1263,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1827,20 +1833,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1850,27 +1856,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1880,27 +1886,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,57 +1916,57 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1995,7 +2001,7 @@
         <v>68084000</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="12:13" x14ac:dyDescent="0.25">
@@ -2006,7 +2012,7 @@
         <v>49148000</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="12:13" x14ac:dyDescent="0.25">
@@ -2023,7 +2029,7 @@
         <v>3658000</v>
       </c>
       <c r="M16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="12:13" x14ac:dyDescent="0.25">
@@ -2034,7 +2040,7 @@
         <v>21570000</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.25">
@@ -2048,29 +2054,29 @@
         <v>28492000</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
+        <v>39</v>
+      </c>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
+        <v>40</v>
+      </c>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
@@ -2080,107 +2086,107 @@
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="5">
         <v>50000</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
-    </row>
-    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="7">
         <v>2012</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="60"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="8">
         <v>2010</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="63"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
     </row>
     <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C42" s="9">
         <v>0.94218268901813196</v>
       </c>
-      <c r="D42" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="63"/>
+      <c r="D42" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
       <c r="M42" t="s">
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C43" s="10">
         <v>1.100724186648488</v>
       </c>
-      <c r="D43" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="52"/>
+      <c r="D43" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
       <c r="M43" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="N43" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M44" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="N44" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -2189,44 +2195,44 @@
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
       <c r="M45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="15" t="s">
+      <c r="F46" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="G46" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="M46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="19">
         <v>47851875</v>
@@ -2243,22 +2249,22 @@
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
       <c r="I47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J47" s="46">
         <f>D47/$F$58</f>
         <v>0.4196428571428571</v>
       </c>
       <c r="M47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="20">
@@ -2274,15 +2280,15 @@
       <c r="H48" s="28"/>
       <c r="J48" s="46"/>
       <c r="M48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="25">
         <v>9163125</v>
@@ -2299,22 +2305,22 @@
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
       <c r="I49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J49" s="46">
         <f t="shared" ref="J49:J57" si="0">D49/$F$58</f>
         <v>8.0357142857142849E-2</v>
       </c>
       <c r="M49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="25">
         <v>3054375</v>
@@ -2331,22 +2337,22 @@
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J50" s="46">
         <f t="shared" si="0"/>
         <v>2.6785714285714284E-2</v>
       </c>
       <c r="M50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="25">
         <v>5090625</v>
@@ -2363,22 +2369,22 @@
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J51" s="46">
         <f t="shared" si="0"/>
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M51" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="N51" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="25">
         <v>5090625</v>
@@ -2395,22 +2401,22 @@
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
       <c r="I52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J52" s="46">
         <f t="shared" si="0"/>
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N52" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="25">
         <v>21380625</v>
@@ -2427,22 +2433,22 @@
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J53" s="46">
         <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
       <c r="M53" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="N53" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="25">
         <v>2036250</v>
@@ -2459,22 +2465,22 @@
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54" s="46">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="M54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="25">
         <v>5090625</v>
@@ -2491,22 +2497,22 @@
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J55" s="46">
         <f t="shared" si="0"/>
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="25">
         <v>1018125</v>
@@ -2523,22 +2529,22 @@
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J56" s="46">
         <f t="shared" si="0"/>
         <v>8.9285714285714281E-3</v>
       </c>
       <c r="M56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="25">
         <v>2036250</v>
@@ -2555,17 +2561,17 @@
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J57" s="46">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="M57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,262 +2589,270 @@
       <c r="G58" s="34"/>
       <c r="H58" s="35"/>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J58" s="46">
         <f>(F58-D58)/F58</f>
         <v>0.10714285714285701</v>
       </c>
       <c r="M58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N58" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36"/>
       <c r="M59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N60" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="37">
         <v>900</v>
       </c>
       <c r="M61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N61" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="37">
         <v>54.3</v>
       </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="39">
         <v>113125</v>
       </c>
       <c r="M63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="40">
         <v>0.47</v>
       </c>
       <c r="M64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" s="40">
         <v>0.53</v>
       </c>
       <c r="M65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="40">
         <v>0.09</v>
       </c>
       <c r="M66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="40">
         <v>0.03</v>
       </c>
       <c r="M67" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="40">
         <v>0.05</v>
       </c>
       <c r="M68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="40">
         <v>0.05</v>
       </c>
       <c r="M69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N69" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" s="40">
         <v>0.21</v>
       </c>
       <c r="M70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N70" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="40">
         <v>0.02</v>
       </c>
       <c r="M71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N71" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="40">
         <v>0.05</v>
       </c>
       <c r="M72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="40">
         <v>0.01</v>
       </c>
       <c r="M73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N73" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="40">
         <v>0.02</v>
       </c>
       <c r="M74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N74" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N75" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N77" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N78" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>33</v>
+      </c>
+      <c r="N79" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="11:12" x14ac:dyDescent="0.25">
@@ -2846,7 +2860,7 @@
         <v>1088450000</v>
       </c>
       <c r="L86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="11:12" x14ac:dyDescent="0.25">
@@ -2854,7 +2868,7 @@
         <v>483000000</v>
       </c>
       <c r="L87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="11:12" x14ac:dyDescent="0.25">
@@ -2868,7 +2882,7 @@
         <v>87900000</v>
       </c>
       <c r="L90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="11:12" x14ac:dyDescent="0.25">
@@ -2879,7 +2893,7 @@
         <v>250600000</v>
       </c>
       <c r="L92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="11:12" x14ac:dyDescent="0.25">
@@ -2893,7 +2907,7 @@
         <v>191000000</v>
       </c>
       <c r="L95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.25">
@@ -2928,894 +2942,917 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="38" width="10.7109375" customWidth="1"/>
+    <col min="2" max="39" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" t="s">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,B1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,C1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,D1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,E1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,F1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,G1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,H1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,I1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,J1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,K1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,L1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,M1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,N1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,O1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,P1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Q1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,R1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,S1,Data!$J$47:$J$58)</f>
+        <v>0.20535714285714285</v>
+      </c>
+      <c r="T2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,T1,Data!$J$47:$J$58)</f>
+        <v>0.66964285714285687</v>
+      </c>
+      <c r="U2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,U1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,V1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,W1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,X1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Y1,Data!$J$47:$J$58)</f>
+        <v>0.12499999999999986</v>
+      </c>
+      <c r="Z2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Z1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AA1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AB1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AC1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AD1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AE1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AF1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AG1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AH1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AI1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AJ1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AK1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AL1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AM2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AM1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,B1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,C1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,D1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,E1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,F1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,G1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,H1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,I1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,J1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,K1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,L1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,M1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,N1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,O1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,P1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,Q1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,R1,Data!$J$47:$J$58)</f>
-        <v>0.20535714285714285</v>
-      </c>
-      <c r="S2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,S1,Data!$J$47:$J$58)</f>
-        <v>0.66964285714285687</v>
-      </c>
-      <c r="T2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,T1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,U1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,V1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,W1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,X1,Data!$J$47:$J$58)</f>
-        <v>0.12499999999999986</v>
-      </c>
-      <c r="Y2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,Y1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,Z1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AA1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AB1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AC1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AD1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AE1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AF1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AG1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AH1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AI1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AJ1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AK2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AK1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AL2" s="64">
-        <f>SUMIF(Data!$I$47:$I$58,AL1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!B1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!C1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!D1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!E1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!F1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!G1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!H1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!I1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!J1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!K1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!L1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!M1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!N1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!O1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!P1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Q1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!R1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!S1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!T1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.41966165941316863</v>
+      </c>
+      <c r="U3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!U1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!V1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!W1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!X1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Y1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.41367167392016474</v>
+      </c>
+      <c r="Z3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Z1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AA1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AB1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AC1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AD1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AE1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AF1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AG3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AG1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AH1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AI1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AJ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AK1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AL1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AM1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!B1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!C1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!D1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!E1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!F1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!G1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!H1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!I1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!J1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!K1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!L1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!M1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!N1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!O1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!P1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Q1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!R1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!S1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41966165941316863</v>
-      </c>
-      <c r="T3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!T1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!U1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!V1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!W1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!X1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41367167392016474</v>
-      </c>
-      <c r="Y3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Y1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Z1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AA1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AB1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AC1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AD1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AE1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AF3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AF1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AG1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AH1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AI1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AJ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AK1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="64">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AL1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,B1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,C1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,D1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,E1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,F1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,G1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,H1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,I1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,J1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,K1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,L1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,M1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,N1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,O1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,P1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Q1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,R1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,S1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,T1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0.55991337252195439</v>
+      </c>
+      <c r="U4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,U1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,V1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,W1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,X1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Y1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0.34917537304552704</v>
+      </c>
+      <c r="Z4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Z1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AA1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AB1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AC1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AD1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AE1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AF1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>9.0911254432518629E-2</v>
+      </c>
+      <c r="AG4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AG1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AH1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AI1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AJ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AK1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AL1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AM1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,B1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,C1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,D1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,E1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,F1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,G1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,H1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,I1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,J1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,K1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,L1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,M1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,N1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,O1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,P1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,Q1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,R1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,S1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+      <c r="B5" s="50">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="50">
+        <f t="shared" ref="C5:AM5" si="0">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="50">
+        <f t="shared" ref="D5" si="1">D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="50">
+        <f t="shared" ref="M5" si="2">M4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="50">
+        <f t="shared" si="0"/>
         <v>0.55991337252195439</v>
       </c>
-      <c r="T4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,T1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,U1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,V1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,W1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,X1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+      <c r="U5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="50">
+        <f t="shared" si="0"/>
         <v>0.34917537304552704</v>
       </c>
-      <c r="Y4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,Y1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,Z1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AA1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AB1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AC1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AD1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AE1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+      <c r="Z5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="50">
+        <f t="shared" si="0"/>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AF4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AF1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AG1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AH1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AI1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AJ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AK1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="64">
-        <f>SUMIF(Data!$L$86:$L$95,AL1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="AG5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B6" s="50">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="64">
-        <f t="shared" ref="C5:AL5" si="0">C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="64">
-        <f t="shared" ref="L5" si="1">L4</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="64">
-        <f t="shared" si="0"/>
+      <c r="C6" s="50">
+        <f t="shared" ref="C6:AM6" si="3">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="50">
+        <f t="shared" ref="D6" si="4">D4</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="50">
+        <f t="shared" ref="M6" si="5">M4</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="50">
+        <f t="shared" si="3"/>
         <v>0.55991337252195439</v>
       </c>
-      <c r="T5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="64">
-        <f t="shared" si="0"/>
+      <c r="U6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="50">
+        <f t="shared" si="3"/>
         <v>0.34917537304552704</v>
       </c>
-      <c r="Y5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="64">
-        <f t="shared" si="0"/>
+      <c r="Z6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="50">
+        <f t="shared" si="3"/>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AF5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="64">
-        <f>B4</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="64">
-        <f t="shared" ref="C6:AL6" si="2">C4</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="64">
-        <f t="shared" ref="L6" si="3">L4</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="64">
-        <f t="shared" si="2"/>
-        <v>0.55991337252195439</v>
-      </c>
-      <c r="T6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="64">
-        <f t="shared" si="2"/>
-        <v>0.34917537304552704</v>
-      </c>
-      <c r="Y6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="64">
-        <f t="shared" si="2"/>
-        <v>9.0911254432518629E-2</v>
-      </c>
-      <c r="AF6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="64">
-        <f t="shared" si="2"/>
+      <c r="AG6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
+++ b/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96971432-1EEF-43DC-9E0B-3FC798C6134A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A2DD0-3A6E-49DF-9F0E-7A230114D7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="435" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="147">
   <si>
     <t>ISIC 01T03</t>
   </si>
@@ -69,12 +69,6 @@
     <t>ISIC 22</t>
   </si>
   <si>
-    <t>ISIC 23</t>
-  </si>
-  <si>
-    <t>ISIC 24</t>
-  </si>
-  <si>
     <t>ISIC 25</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>ISIC 31T33</t>
   </si>
   <si>
-    <t>ISIC 35T39</t>
-  </si>
-  <si>
     <t>ISIC 41T43</t>
   </si>
   <si>
@@ -312,12 +303,6 @@
     <t>Rubber and plastics products</t>
   </si>
   <si>
-    <t>Other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>Manufacture of basic metals</t>
-  </si>
-  <si>
     <t>Fabricated metal products, except machinery and equipment</t>
   </si>
   <si>
@@ -339,9 +324,6 @@
     <t>Other manufacturing; repair and installation of machinery and equipment</t>
   </si>
   <si>
-    <t>Electricity, gas, water supply, sewerage, waste and remediation services</t>
-  </si>
-  <si>
     <t>Construction</t>
   </si>
   <si>
@@ -457,6 +439,48 @@
   </si>
   <si>
     <t>Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>ISIC 231</t>
+  </si>
+  <si>
+    <t>ISIC 239</t>
+  </si>
+  <si>
+    <t>ISIC 241</t>
+  </si>
+  <si>
+    <t>ISIC 242</t>
+  </si>
+  <si>
+    <t>ISIC 351</t>
+  </si>
+  <si>
+    <t>ISIC 352T353</t>
+  </si>
+  <si>
+    <t>ISIC 36T39</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Cement and other nonmetallic minerals</t>
+  </si>
+  <si>
+    <t>Iron and steel</t>
+  </si>
+  <si>
+    <t>Other metals</t>
+  </si>
+  <si>
+    <t>Electricity generation and distribution</t>
+  </si>
+  <si>
+    <t>Energy pipelines and gas processing</t>
+  </si>
+  <si>
+    <t>Water and waste</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1109,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1232,6 +1256,9 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1833,20 +1860,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1856,27 +1883,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,27 +1913,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,57 +1943,57 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +2028,7 @@
         <v>68084000</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="12:13" x14ac:dyDescent="0.25">
@@ -2012,7 +2039,7 @@
         <v>49148000</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="12:13" x14ac:dyDescent="0.25">
@@ -2029,7 +2056,7 @@
         <v>3658000</v>
       </c>
       <c r="M16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="12:13" x14ac:dyDescent="0.25">
@@ -2040,7 +2067,7 @@
         <v>21570000</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.25">
@@ -2054,29 +2081,29 @@
         <v>28492000</v>
       </c>
       <c r="M21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+        <v>36</v>
+      </c>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
+        <v>37</v>
+      </c>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
@@ -2086,107 +2113,107 @@
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5">
         <v>50000</v>
       </c>
-      <c r="D38" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="57"/>
+      <c r="D38" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="58"/>
     </row>
     <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
+      <c r="D39" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C40" s="7">
         <v>2012</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C41" s="8">
         <v>2010</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="65"/>
     </row>
     <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C42" s="9">
         <v>0.94218268901813196</v>
       </c>
-      <c r="D42" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="64"/>
+      <c r="D42" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="65"/>
       <c r="M42" t="s">
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C43" s="10">
         <v>1.100724186648488</v>
       </c>
-      <c r="D43" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="53"/>
+      <c r="D43" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54"/>
       <c r="M43" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="N43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M44" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="N44" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -2198,41 +2225,41 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="M46" t="s">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C47" s="19">
         <v>47851875</v>
@@ -2249,7 +2276,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47" s="46">
         <f>D47/$F$58</f>
@@ -2259,12 +2286,12 @@
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="20">
@@ -2283,12 +2310,12 @@
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C49" s="25">
         <v>9163125</v>
@@ -2305,7 +2332,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J49" s="46">
         <f t="shared" ref="J49:J57" si="0">D49/$F$58</f>
@@ -2315,12 +2342,12 @@
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C50" s="25">
         <v>3054375</v>
@@ -2337,7 +2364,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J50" s="46">
         <f t="shared" si="0"/>
@@ -2347,12 +2374,12 @@
         <v>6</v>
       </c>
       <c r="N50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C51" s="25">
         <v>5090625</v>
@@ -2369,7 +2396,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J51" s="46">
         <f t="shared" si="0"/>
@@ -2379,12 +2406,12 @@
         <v>7</v>
       </c>
       <c r="N51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C52" s="25">
         <v>5090625</v>
@@ -2401,22 +2428,22 @@
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J52" s="46">
         <f t="shared" si="0"/>
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M52" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="N52" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C53" s="25">
         <v>21380625</v>
@@ -2433,22 +2460,22 @@
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J53" s="46">
         <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
       <c r="M53" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N53" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C54" s="25">
         <v>2036250</v>
@@ -2465,7 +2492,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J54" s="46">
         <f t="shared" si="0"/>
@@ -2475,12 +2502,12 @@
         <v>8</v>
       </c>
       <c r="N54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C55" s="25">
         <v>5090625</v>
@@ -2497,22 +2524,22 @@
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J55" s="46">
         <f t="shared" si="0"/>
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M55" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="N55" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C56" s="25">
         <v>1018125</v>
@@ -2529,22 +2556,22 @@
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J56" s="46">
         <f t="shared" si="0"/>
         <v>8.9285714285714281E-3</v>
       </c>
       <c r="M56" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="N56" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C57" s="25">
         <v>2036250</v>
@@ -2561,17 +2588,17 @@
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J57" s="46">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="M57" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="N57" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2589,325 +2616,357 @@
       <c r="G58" s="34"/>
       <c r="H58" s="35"/>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J58" s="46">
         <f>(F58-D58)/F58</f>
         <v>0.10714285714285701</v>
       </c>
       <c r="M58" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="N58" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36"/>
       <c r="M59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N59" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N60" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C61" s="37">
         <v>900</v>
       </c>
       <c r="M61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N61" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C62" s="37">
         <v>54.3</v>
       </c>
       <c r="M62" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N62" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C63" s="39">
         <v>113125</v>
       </c>
       <c r="M63" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N63" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C64" s="40">
         <v>0.47</v>
       </c>
       <c r="M64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C65" s="40">
         <v>0.53</v>
       </c>
       <c r="M65" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N65" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C66" s="40">
         <v>0.09</v>
       </c>
       <c r="M66" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="N66" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C67" s="40">
         <v>0.03</v>
       </c>
       <c r="M67" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="N67" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C68" s="40">
         <v>0.05</v>
       </c>
       <c r="M68" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="N68" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C69" s="40">
         <v>0.05</v>
       </c>
       <c r="M69" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N69" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C70" s="40">
         <v>0.21</v>
       </c>
       <c r="M70" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N70" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C71" s="40">
         <v>0.02</v>
       </c>
       <c r="M71" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N71" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C72" s="40">
         <v>0.05</v>
       </c>
       <c r="M72" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N72" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C73" s="40">
         <v>0.01</v>
       </c>
       <c r="M73" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N73" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C74" s="40">
         <v>0.02</v>
       </c>
       <c r="M74" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N75" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N76" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N77" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N78" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M79" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="11:12" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>27</v>
+      </c>
+      <c r="N80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>29</v>
+      </c>
+      <c r="N82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>30</v>
+      </c>
+      <c r="N83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K86" s="48">
         <v>1088450000</v>
       </c>
       <c r="L86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="11:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K87" s="48">
         <v>483000000</v>
       </c>
       <c r="L87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="11:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K90" s="48">
         <v>87900000</v>
       </c>
       <c r="L90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="11:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K92" s="48">
         <v>250600000</v>
       </c>
       <c r="L92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="11:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K95" s="48">
         <v>191000000</v>
       </c>
       <c r="L95" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.25">
@@ -2942,138 +3001,152 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="39" width="10.7109375" customWidth="1"/>
+    <col min="2" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+    <col min="28" max="43" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="D1" t="s">
+      <c r="R1" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="AA1" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AF1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AG1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AH1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AI1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AJ1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AK1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AL1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AM1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AN1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AO1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AP1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AQ1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" t="s">
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>31</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
       </c>
       <c r="B2" s="50">
         <f>SUMIF(Data!$I$47:$I$58,B1,Data!$J$47:$J$58)</f>
@@ -3145,19 +3218,19 @@
       </c>
       <c r="S2" s="50">
         <f>SUMIF(Data!$I$47:$I$58,S1,Data!$J$47:$J$58)</f>
-        <v>0.20535714285714285</v>
+        <v>0</v>
       </c>
       <c r="T2" s="50">
         <f>SUMIF(Data!$I$47:$I$58,T1,Data!$J$47:$J$58)</f>
-        <v>0.66964285714285687</v>
+        <v>0</v>
       </c>
       <c r="U2" s="50">
         <f>SUMIF(Data!$I$47:$I$58,U1,Data!$J$47:$J$58)</f>
-        <v>0</v>
+        <v>0.20535714285714285</v>
       </c>
       <c r="V2" s="50">
         <f>SUMIF(Data!$I$47:$I$58,V1,Data!$J$47:$J$58)</f>
-        <v>0</v>
+        <v>0.66964285714285687</v>
       </c>
       <c r="W2" s="50">
         <f>SUMIF(Data!$I$47:$I$58,W1,Data!$J$47:$J$58)</f>
@@ -3169,7 +3242,7 @@
       </c>
       <c r="Y2" s="50">
         <f>SUMIF(Data!$I$47:$I$58,Y1,Data!$J$47:$J$58)</f>
-        <v>0.12499999999999986</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="50">
         <f>SUMIF(Data!$I$47:$I$58,Z1,Data!$J$47:$J$58)</f>
@@ -3185,7 +3258,7 @@
       </c>
       <c r="AC2" s="50">
         <f>SUMIF(Data!$I$47:$I$58,AC1,Data!$J$47:$J$58)</f>
-        <v>0</v>
+        <v>0.12499999999999986</v>
       </c>
       <c r="AD2" s="50">
         <f>SUMIF(Data!$I$47:$I$58,AD1,Data!$J$47:$J$58)</f>
@@ -3227,10 +3300,26 @@
         <f>SUMIF(Data!$I$47:$I$58,AM1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AN1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AO1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AP2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AP1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AQ1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!B1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
@@ -3306,7 +3395,7 @@
       </c>
       <c r="T3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!T1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41966165941316863</v>
+        <v>0</v>
       </c>
       <c r="U3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!U1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
@@ -3314,7 +3403,7 @@
       </c>
       <c r="V3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!V1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
+        <v>0.41966165941316863</v>
       </c>
       <c r="W3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!W1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
@@ -3326,7 +3415,7 @@
       </c>
       <c r="Y3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Y1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41367167392016474</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Z1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
@@ -3342,7 +3431,7 @@
       </c>
       <c r="AC3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AC1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
+        <v>0.41367167392016474</v>
       </c>
       <c r="AD3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AD1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
@@ -3354,7 +3443,7 @@
       </c>
       <c r="AF3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AF1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AG1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
@@ -3370,7 +3459,7 @@
       </c>
       <c r="AJ3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AJ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AK3" s="50">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AK1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
@@ -3384,10 +3473,26 @@
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AM1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AN1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AO1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AP1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AQ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,B1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
@@ -3463,7 +3568,7 @@
       </c>
       <c r="T4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,T1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0.55991337252195439</v>
+        <v>0</v>
       </c>
       <c r="U4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,U1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
@@ -3471,7 +3576,7 @@
       </c>
       <c r="V4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,V1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
+        <v>0.55991337252195439</v>
       </c>
       <c r="W4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,W1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
@@ -3483,7 +3588,7 @@
       </c>
       <c r="Y4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,Y1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0.34917537304552704</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,Z1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
@@ -3499,7 +3604,7 @@
       </c>
       <c r="AC4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,AC1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
+        <v>0.34917537304552704</v>
       </c>
       <c r="AD4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,AD1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
@@ -3511,7 +3616,7 @@
       </c>
       <c r="AF4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,AF1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>9.0911254432518629E-2</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,AG1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
@@ -3527,7 +3632,7 @@
       </c>
       <c r="AJ4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,AJ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
+        <v>9.0911254432518629E-2</v>
       </c>
       <c r="AK4" s="50">
         <f>SUMIF(Data!$L$86:$L$95,AK1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
@@ -3541,17 +3646,33 @@
         <f>SUMIF(Data!$L$86:$L$95,AM1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AN1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AO1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AP1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AQ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="50">
         <f>B4</f>
         <v>0</v>
       </c>
       <c r="C5" s="50">
-        <f t="shared" ref="C5:AM5" si="0">C4</f>
+        <f t="shared" ref="C5:AQ5" si="0">C4</f>
         <v>0</v>
       </c>
       <c r="D5" s="50">
@@ -3603,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P5" si="3">P4</f>
         <v>0</v>
       </c>
       <c r="Q5" s="50">
@@ -3611,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R5" si="4">R4</f>
         <v>0</v>
       </c>
       <c r="S5" s="50">
@@ -3620,16 +3741,16 @@
       </c>
       <c r="T5" s="50">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="50">
+        <f t="shared" si="0"/>
         <v>0.55991337252195439</v>
       </c>
-      <c r="U5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="W5" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3640,24 +3761,24 @@
       </c>
       <c r="Y5" s="50">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="50">
+        <f t="shared" ref="AA5:AB5" si="5">AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="50">
+        <f t="shared" si="0"/>
         <v>0.34917537304552704</v>
       </c>
-      <c r="Z5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AD5" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3668,24 +3789,24 @@
       </c>
       <c r="AF5" s="50">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="50">
+        <f t="shared" si="0"/>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AG5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AK5" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3698,161 +3819,193 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="50">
         <f>B4</f>
         <v>0</v>
       </c>
       <c r="C6" s="50">
-        <f t="shared" ref="C6:AM6" si="3">C4</f>
+        <f t="shared" ref="C6:AQ6" si="6">C4</f>
         <v>0</v>
       </c>
       <c r="D6" s="50">
-        <f t="shared" ref="D6" si="4">D4</f>
+        <f t="shared" ref="D6" si="7">D4</f>
         <v>0</v>
       </c>
       <c r="E6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M6" s="50">
-        <f t="shared" ref="M6" si="5">M4</f>
+        <f t="shared" ref="M6" si="8">M4</f>
         <v>0</v>
       </c>
       <c r="N6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P6" si="9">P4</f>
         <v>0</v>
       </c>
       <c r="Q6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="R6" si="10">R4</f>
         <v>0</v>
       </c>
       <c r="S6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="50">
+        <f t="shared" si="6"/>
         <v>0.55991337252195439</v>
       </c>
-      <c r="U6" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="W6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="50">
+        <f t="shared" ref="AA6:AB6" si="11">AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="50">
+        <f t="shared" si="6"/>
         <v>0.34917537304552704</v>
       </c>
-      <c r="Z6" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="AD6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="50">
+        <f t="shared" si="6"/>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AG6" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="AK6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="50">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
+++ b/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\hydgn\SoHPCCbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A2DD0-3A6E-49DF-9F0E-7A230114D7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="SoHPCCbRIC" sheetId="2" r:id="rId3"/>
+    <sheet name="Pre ISIC Consolidation" sheetId="4" r:id="rId3"/>
+    <sheet name="SoHPCCbRIC" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="CEPCIinflator">Data!$C$11</definedName>
     <definedName name="CPIinflator">Data!$C$12</definedName>
     <definedName name="CurrentYear">Data!$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
   <si>
     <t>ISIC 01T03</t>
   </si>
@@ -481,12 +481,24 @@
   </si>
   <si>
     <t>Water and waste</t>
+  </si>
+  <si>
+    <t>EU ISIC Consolidation</t>
+  </si>
+  <si>
+    <t>Default EPS ISIC Groupings</t>
+  </si>
+  <si>
+    <t>EU ISIC Groupings</t>
+  </si>
+  <si>
+    <t>Hydrogen Capital Costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -581,7 +593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +636,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -1109,7 +1127,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1290,6 +1308,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1848,22 +1867,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="65.140625" customWidth="1"/>
+    <col min="2" max="2" width="65.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1871,136 +1890,136 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="43">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="43">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="43">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B22" s="45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2008,22 +2027,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="99.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L10" s="48">
         <v>68084000</v>
       </c>
@@ -2031,10 +2050,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L12" s="48">
         <v>49148000</v>
       </c>
@@ -2042,16 +2061,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L16" s="48">
         <v>3658000</v>
       </c>
@@ -2059,10 +2078,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L18" s="48">
         <v>21570000</v>
       </c>
@@ -2070,13 +2089,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L21" s="48">
         <v>28492000</v>
       </c>
@@ -2084,7 +2103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" ht="21.4" x14ac:dyDescent="0.8">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
@@ -2092,12 +2111,12 @@
       <c r="G33" s="55"/>
       <c r="H33" s="55"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
       <c r="H34" s="55"/>
     </row>
-    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="15.4" x14ac:dyDescent="0.45">
       <c r="C35" s="3" t="s">
         <v>37</v>
       </c>
@@ -2105,13 +2124,13 @@
       <c r="G35" s="55"/>
       <c r="H35" s="55"/>
     </row>
-    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="15.4" x14ac:dyDescent="0.45">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
@@ -2126,7 +2145,7 @@
       <c r="G38" s="57"/>
       <c r="H38" s="58"/>
     </row>
-    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D39" s="59" t="s">
         <v>40</v>
       </c>
@@ -2135,7 +2154,7 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
@@ -2148,7 +2167,7 @@
       <c r="G40" s="61"/>
       <c r="H40" s="62"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B41" s="6" t="s">
         <v>42</v>
       </c>
@@ -2161,7 +2180,7 @@
       <c r="G41" s="64"/>
       <c r="H41" s="65"/>
     </row>
-    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="6" t="s">
         <v>111</v>
       </c>
@@ -2182,7 +2201,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="6" t="s">
         <v>112</v>
       </c>
@@ -2203,7 +2222,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="M44" t="s">
         <v>131</v>
       </c>
@@ -2211,7 +2230,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" ht="16.149999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="11" t="s">
         <v>113</v>
       </c>
@@ -2228,7 +2247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="14" t="s">
         <v>45</v>
       </c>
@@ -2257,7 +2276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B47" s="18" t="s">
         <v>49</v>
       </c>
@@ -2289,7 +2308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B48" s="24" t="s">
         <v>50</v>
       </c>
@@ -2313,7 +2332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B49" s="29" t="s">
         <v>55</v>
       </c>
@@ -2345,7 +2364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B50" s="29" t="s">
         <v>56</v>
       </c>
@@ -2377,7 +2396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B51" s="29" t="s">
         <v>57</v>
       </c>
@@ -2409,7 +2428,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B52" s="29" t="s">
         <v>58</v>
       </c>
@@ -2441,7 +2460,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B53" s="29" t="s">
         <v>59</v>
       </c>
@@ -2473,7 +2492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B54" s="29" t="s">
         <v>60</v>
       </c>
@@ -2505,7 +2524,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B55" s="29" t="s">
         <v>61</v>
       </c>
@@ -2537,7 +2556,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B56" s="29" t="s">
         <v>62</v>
       </c>
@@ -2569,7 +2588,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B57" s="29" t="s">
         <v>63</v>
       </c>
@@ -2601,7 +2620,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="30"/>
       <c r="C58" s="31">
         <v>101812500</v>
@@ -2629,7 +2648,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C59" s="36"/>
       <c r="M59" t="s">
         <v>9</v>
@@ -2638,7 +2657,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M60" t="s">
         <v>10</v>
       </c>
@@ -2646,7 +2665,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B61" s="37" t="s">
         <v>51</v>
       </c>
@@ -2660,7 +2679,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B62" s="38" t="s">
         <v>52</v>
       </c>
@@ -2674,7 +2693,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B63" s="38" t="s">
         <v>53</v>
       </c>
@@ -2688,7 +2707,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B64" s="37" t="s">
         <v>49</v>
       </c>
@@ -2702,7 +2721,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B65" s="37" t="s">
         <v>54</v>
       </c>
@@ -2716,7 +2735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B66" s="41" t="s">
         <v>55</v>
       </c>
@@ -2730,7 +2749,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B67" s="41" t="s">
         <v>56</v>
       </c>
@@ -2744,7 +2763,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B68" s="41" t="s">
         <v>57</v>
       </c>
@@ -2758,7 +2777,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B69" s="41" t="s">
         <v>58</v>
       </c>
@@ -2772,7 +2791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B70" s="41" t="s">
         <v>59</v>
       </c>
@@ -2786,7 +2805,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B71" s="41" t="s">
         <v>60</v>
       </c>
@@ -2800,7 +2819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B72" s="41" t="s">
         <v>61</v>
       </c>
@@ -2814,7 +2833,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B73" s="41" t="s">
         <v>62</v>
       </c>
@@ -2828,7 +2847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B74" s="41" t="s">
         <v>63</v>
       </c>
@@ -2842,7 +2861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M75" t="s">
         <v>22</v>
       </c>
@@ -2850,7 +2869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M76" t="s">
         <v>23</v>
       </c>
@@ -2858,7 +2877,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M77" t="s">
         <v>24</v>
       </c>
@@ -2866,7 +2885,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M78" t="s">
         <v>25</v>
       </c>
@@ -2874,7 +2893,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M79" t="s">
         <v>26</v>
       </c>
@@ -2882,7 +2901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.45">
       <c r="M80" t="s">
         <v>27</v>
       </c>
@@ -2890,7 +2909,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="11:14" x14ac:dyDescent="0.45">
       <c r="M81" t="s">
         <v>28</v>
       </c>
@@ -2898,7 +2917,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:14" x14ac:dyDescent="0.45">
       <c r="M82" t="s">
         <v>29</v>
       </c>
@@ -2906,7 +2925,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:14" x14ac:dyDescent="0.45">
       <c r="M83" t="s">
         <v>30</v>
       </c>
@@ -2914,7 +2933,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K86" s="48">
         <v>1088450000</v>
       </c>
@@ -2922,7 +2941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K87" s="48">
         <v>483000000</v>
       </c>
@@ -2930,13 +2949,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K90" s="48">
         <v>87900000</v>
       </c>
@@ -2944,10 +2963,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K92" s="48">
         <v>250600000</v>
       </c>
@@ -2955,13 +2974,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:14" x14ac:dyDescent="0.45">
       <c r="K95" s="48">
         <v>191000000</v>
       </c>
@@ -2969,7 +2988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K98" s="47">
         <f>SUM(K86:K95)</f>
         <v>2100950000</v>
@@ -2986,7 +3005,7 @@
     <mergeCell ref="D42:H42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41">
       <formula1>1992</formula1>
       <formula2>2016</formula2>
     </dataValidation>
@@ -2997,23 +3016,1395 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:AQ11"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3:AS8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A1" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A2" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA2" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB2" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ2" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL2" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM2" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN2" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP2" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ2" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,B2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,C2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,D2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,E2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,F2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,G2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,H2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,I2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,J2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,K2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,L2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,M2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,N2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,O2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,P2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Q2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,R2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,S2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,T2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,U2,Data!$J$47:$J$58)</f>
+        <v>0.20535714285714285</v>
+      </c>
+      <c r="V3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,V2,Data!$J$47:$J$58)</f>
+        <v>0.66964285714285687</v>
+      </c>
+      <c r="W3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,W2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,X2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Y2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Z2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AA2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AB2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AC2,Data!$J$47:$J$58)</f>
+        <v>0.12499999999999986</v>
+      </c>
+      <c r="AD3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AD2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AE2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AF2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AG2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AH2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AI2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AJ2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AK2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AL2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AM2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AN2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AO2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AP2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AQ2,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!B2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!C2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!D2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!E2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!F2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!G2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!H2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!I2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!J2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!K2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!L2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!M2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!N2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!O2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!P2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Q2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!R2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!S2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!T2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!U2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!V2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.41966165941316863</v>
+      </c>
+      <c r="W4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!W2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!X2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Y2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Z2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AA2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AB2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AC2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.41367167392016474</v>
+      </c>
+      <c r="AD4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AD2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AE2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AF2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AG2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AH2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AI2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AJ2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AK4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AK2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AL2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AM2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AN2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AO2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AP2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AQ2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,B2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,C2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,D2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,E2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,F2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,G2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,H2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,I2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,J2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,K2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,L2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,M2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,N2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,O2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,P2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Q2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,R2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,S2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,T2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,U2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,V2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0.55991337252195439</v>
+      </c>
+      <c r="W5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,W2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,X2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Y2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Z2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AA2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AB2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AC2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0.34917537304552704</v>
+      </c>
+      <c r="AD5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AD2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AE2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AF2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AG2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AH2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AI2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AJ2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>9.0911254432518629E-2</v>
+      </c>
+      <c r="AK5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AK2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AL2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AM2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AN2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AO2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AP2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AQ2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="50">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="50">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="50">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="50">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="50">
+        <f>F5</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="50">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="50">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <f>I5</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="50">
+        <f>J5</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="50">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="50">
+        <f>L5</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="50">
+        <f>M5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="50">
+        <f>N5</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="50">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="50">
+        <f>P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="50">
+        <f>Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="50">
+        <f>R5</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="50">
+        <f>S5</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="50">
+        <f>T5</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="50">
+        <f>U5</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="50">
+        <f>V5</f>
+        <v>0.55991337252195439</v>
+      </c>
+      <c r="W6" s="50">
+        <f>W5</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="50">
+        <f>X5</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="50">
+        <f>Y5</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="50">
+        <f>Z5</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="50">
+        <f>AA5</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="50">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="50">
+        <f>AC5</f>
+        <v>0.34917537304552704</v>
+      </c>
+      <c r="AD6" s="50">
+        <f>AD5</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="50">
+        <f>AE5</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="50">
+        <f>AF5</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="50">
+        <f>AG5</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="50">
+        <f>AH5</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="50">
+        <f>AI5</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="50">
+        <f>AJ5</f>
+        <v>9.0911254432518629E-2</v>
+      </c>
+      <c r="AK6" s="50">
+        <f>AK5</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="50">
+        <f>AL5</f>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="50">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="50">
+        <f>AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="50">
+        <f>AO5</f>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="50">
+        <f>AP5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="50">
+        <f>AQ5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="50">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="50">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="50">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="50">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="50">
+        <f>F5</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="50">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="50">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
+        <f>I5</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="50">
+        <f>J5</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="50">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="50">
+        <f>L5</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="50">
+        <f>M5</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="50">
+        <f>N5</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="50">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="50">
+        <f>P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="50">
+        <f>Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="50">
+        <f>R5</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="50">
+        <f>S5</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="50">
+        <f>T5</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="50">
+        <f>U5</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="50">
+        <f>V5</f>
+        <v>0.55991337252195439</v>
+      </c>
+      <c r="W7" s="50">
+        <f>W5</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="50">
+        <f>X5</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="50">
+        <f>Y5</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="50">
+        <f>Z5</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="50">
+        <f>AA5</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="50">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="50">
+        <f>AC5</f>
+        <v>0.34917537304552704</v>
+      </c>
+      <c r="AD7" s="50">
+        <f>AD5</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="50">
+        <f>AE5</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="50">
+        <f>AF5</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="50">
+        <f>AG5</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="50">
+        <f>AH5</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="50">
+        <f>AI5</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="50">
+        <f>AJ5</f>
+        <v>9.0911254432518629E-2</v>
+      </c>
+      <c r="AK7" s="50">
+        <f>AK5</f>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="50">
+        <f>AL5</f>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="50">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="50">
+        <f>AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="50">
+        <f>AO5</f>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="50">
+        <f>AP5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="50">
+        <f>AQ5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A9" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA10" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB10" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE10" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG10" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH10" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI10" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ10" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL10" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM10" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN10" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP10" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ10" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="S11" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA11" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB11" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD11" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE11" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI11" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ11" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL11" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM11" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN11" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO11" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP11" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ11" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AQ6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="10.7109375" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" customWidth="1"/>
-    <col min="28" max="43" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="10.73046875" customWidth="1"/>
+    <col min="27" max="27" width="13.1328125" customWidth="1"/>
+    <col min="28" max="43" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A1" s="49" t="s">
         <v>124</v>
       </c>
@@ -3144,868 +4535,868 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,B1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
         <v>0</v>
       </c>
       <c r="C2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,C1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
         <v>0</v>
       </c>
       <c r="D2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,D1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
         <v>0</v>
       </c>
       <c r="E2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,E1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
         <v>0</v>
       </c>
       <c r="F2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,F1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
         <v>0</v>
       </c>
       <c r="G2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,G1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
         <v>0</v>
       </c>
       <c r="H2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,H1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
         <v>0</v>
       </c>
       <c r="I2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,I1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
         <v>0</v>
       </c>
       <c r="J2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,J1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
         <v>0</v>
       </c>
       <c r="K2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,K1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
         <v>0</v>
       </c>
       <c r="L2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,L1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
         <v>0</v>
       </c>
       <c r="M2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,M1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
         <v>0</v>
       </c>
       <c r="N2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,N1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
         <v>0</v>
       </c>
       <c r="O2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,O1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
         <v>0</v>
       </c>
       <c r="P2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,P1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Q1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,R1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
         <v>0</v>
       </c>
       <c r="S2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,S1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
         <v>0</v>
       </c>
       <c r="T2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,T1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
         <v>0</v>
       </c>
       <c r="U2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,U1,Data!$J$47:$J$58)</f>
-        <v>0.20535714285714285</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
+        <v>0</v>
       </c>
       <c r="V2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,V1,Data!$J$47:$J$58)</f>
-        <v>0.66964285714285687</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
+        <v>0.87499999999999978</v>
       </c>
       <c r="W2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,W1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
         <v>0</v>
       </c>
       <c r="X2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,X1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Y1,Data!$J$47:$J$58)</f>
-        <v>0</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+        <v>0.12499999999999986</v>
       </c>
       <c r="Z2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Z1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AA1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AB1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AC1,Data!$J$47:$J$58)</f>
-        <v>0.12499999999999986</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
+        <v>0</v>
       </c>
       <c r="AD2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AD1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AE1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AF1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AG1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AH1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AI1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AJ1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AK1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AL1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AM1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AN1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AO1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AP1,Data!$J$47:$J$58)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AQ1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!B1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!C1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!D1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
         <v>0</v>
       </c>
       <c r="E3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!E1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
         <v>0</v>
       </c>
       <c r="F3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!F1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
         <v>0</v>
       </c>
       <c r="G3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!G1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
         <v>0</v>
       </c>
       <c r="H3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!H1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
         <v>0</v>
       </c>
       <c r="I3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!I1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
         <v>0</v>
       </c>
       <c r="J3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!J1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
         <v>0</v>
       </c>
       <c r="K3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!K1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
         <v>0</v>
       </c>
       <c r="L3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!L1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
         <v>0</v>
       </c>
       <c r="M3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!M1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
         <v>0</v>
       </c>
       <c r="N3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!N1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
         <v>0</v>
       </c>
       <c r="O3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!O1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
         <v>0</v>
       </c>
       <c r="P3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!P1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Q1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!R1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
         <v>0</v>
       </c>
       <c r="S3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!S1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
         <v>0</v>
       </c>
       <c r="T3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!T1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
         <v>0</v>
       </c>
       <c r="U3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!U1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
         <v>0</v>
       </c>
       <c r="V3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!V1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
         <v>0.41966165941316863</v>
       </c>
       <c r="W3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!W1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
         <v>0</v>
       </c>
       <c r="X3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!X1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Y1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+        <v>0.41367167392016474</v>
       </c>
       <c r="Z3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Z1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AA1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AB1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AC1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41367167392016474</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
+        <v>0</v>
       </c>
       <c r="AD3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AD1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AE1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AF1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AG1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AH1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AI1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AJ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="AK3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AK1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AL1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AM1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AN1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AO1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AP1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AQ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,B1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
         <v>0</v>
       </c>
       <c r="C4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,C1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,D1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
         <v>0</v>
       </c>
       <c r="E4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,E1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
         <v>0</v>
       </c>
       <c r="F4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,F1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
         <v>0</v>
       </c>
       <c r="G4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,G1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
         <v>0</v>
       </c>
       <c r="H4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,H1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
         <v>0</v>
       </c>
       <c r="I4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,I1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
         <v>0</v>
       </c>
       <c r="J4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,J1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
         <v>0</v>
       </c>
       <c r="K4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,K1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
         <v>0</v>
       </c>
       <c r="L4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,L1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
         <v>0</v>
       </c>
       <c r="M4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,M1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
         <v>0</v>
       </c>
       <c r="N4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,N1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
         <v>0</v>
       </c>
       <c r="O4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,O1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
         <v>0</v>
       </c>
       <c r="P4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,P1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Q1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,R1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
         <v>0</v>
       </c>
       <c r="S4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,S1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
         <v>0</v>
       </c>
       <c r="T4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,T1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
         <v>0</v>
       </c>
       <c r="U4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,U1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
         <v>0</v>
       </c>
       <c r="V4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,V1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
         <v>0.55991337252195439</v>
       </c>
       <c r="W4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,W1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
         <v>0</v>
       </c>
       <c r="X4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,X1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Y1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+        <v>0.34917537304552704</v>
       </c>
       <c r="Z4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Z1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AA1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AB1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AC1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0.34917537304552704</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
+        <v>0</v>
       </c>
       <c r="AD4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AD1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AE1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AF1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AG1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AH1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AI1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AJ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
         <v>9.0911254432518629E-2</v>
       </c>
       <c r="AK4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AK1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AL1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AM1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AN1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AO1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AP1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AQ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="50">
-        <f>B4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
         <v>0</v>
       </c>
       <c r="C5" s="50">
-        <f t="shared" ref="C5:AQ5" si="0">C4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="50">
-        <f t="shared" ref="D5" si="1">D4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
         <v>0</v>
       </c>
       <c r="E5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
         <v>0</v>
       </c>
       <c r="F5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
         <v>0</v>
       </c>
       <c r="G5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
         <v>0</v>
       </c>
       <c r="H5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
         <v>0</v>
       </c>
       <c r="I5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
         <v>0</v>
       </c>
       <c r="J5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
         <v>0</v>
       </c>
       <c r="K5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
         <v>0</v>
       </c>
       <c r="L5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
         <v>0</v>
       </c>
       <c r="M5" s="50">
-        <f t="shared" ref="M5" si="2">M4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
         <v>0</v>
       </c>
       <c r="N5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
         <v>0</v>
       </c>
       <c r="O5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
         <v>0</v>
       </c>
       <c r="P5" s="50">
-        <f t="shared" ref="P5" si="3">P4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R5" s="50">
-        <f t="shared" ref="R5" si="4">R4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
         <v>0</v>
       </c>
       <c r="S5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
         <v>0</v>
       </c>
       <c r="T5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
         <v>0</v>
       </c>
       <c r="U5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
         <v>0</v>
       </c>
       <c r="V5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
         <v>0.55991337252195439</v>
       </c>
       <c r="W5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
         <v>0</v>
       </c>
       <c r="X5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+        <v>0.34917537304552704</v>
       </c>
       <c r="Z5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA5" s="50">
-        <f t="shared" ref="AA5:AB5" si="5">AA4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB5" s="50">
-        <f t="shared" si="5"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="50">
-        <f t="shared" si="0"/>
-        <v>0.34917537304552704</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
+        <v>0</v>
       </c>
       <c r="AD5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
         <v>9.0911254432518629E-2</v>
       </c>
       <c r="AK5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="50">
-        <f>B4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
         <v>0</v>
       </c>
       <c r="C6" s="50">
-        <f t="shared" ref="C6:AQ6" si="6">C4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="50">
-        <f t="shared" ref="D6" si="7">D4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
         <v>0</v>
       </c>
       <c r="E6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
         <v>0</v>
       </c>
       <c r="F6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
         <v>0</v>
       </c>
       <c r="G6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
         <v>0</v>
       </c>
       <c r="H6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
         <v>0</v>
       </c>
       <c r="I6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
         <v>0</v>
       </c>
       <c r="J6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
         <v>0</v>
       </c>
       <c r="K6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
         <v>0</v>
       </c>
       <c r="L6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
         <v>0</v>
       </c>
       <c r="M6" s="50">
-        <f t="shared" ref="M6" si="8">M4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
         <v>0</v>
       </c>
       <c r="N6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
         <v>0</v>
       </c>
       <c r="O6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
         <v>0</v>
       </c>
       <c r="P6" s="50">
-        <f t="shared" ref="P6" si="9">P4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R6" s="50">
-        <f t="shared" ref="R6" si="10">R4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
         <v>0</v>
       </c>
       <c r="S6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
         <v>0</v>
       </c>
       <c r="T6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
         <v>0</v>
       </c>
       <c r="U6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
         <v>0</v>
       </c>
       <c r="V6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
         <v>0.55991337252195439</v>
       </c>
       <c r="W6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
         <v>0</v>
       </c>
       <c r="X6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+        <v>0.34917537304552704</v>
       </c>
       <c r="Z6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA6" s="50">
-        <f t="shared" ref="AA6:AB6" si="11">AA4</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB6" s="50">
-        <f t="shared" si="11"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC6" s="50">
-        <f t="shared" si="6"/>
-        <v>0.34917537304552704</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
+        <v>0</v>
       </c>
       <c r="AD6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
         <v>9.0911254432518629E-2</v>
       </c>
       <c r="AK6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ6" s="50">
-        <f t="shared" si="6"/>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
+++ b/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\hydgn\SoHPCCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\hydgn\SoHPCCbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE7769B-71AC-49D1-A722-F920CCFF07A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830"/>
+    <workbookView xWindow="-28110" yWindow="945" windowWidth="25995" windowHeight="13605" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="CPIinflator">Data!$C$12</definedName>
     <definedName name="CurrentYear">Data!$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +34,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -498,7 +502,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1277,6 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1308,7 +1313,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1867,22 +1871,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="65.1328125" customWidth="1"/>
+    <col min="2" max="2" width="65.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1890,136 +1894,136 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="43">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="43">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="43">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2027,22 +2031,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B10:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="99.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L10" s="48">
         <v>68084000</v>
       </c>
@@ -2050,10 +2054,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L12" s="48">
         <v>49148000</v>
       </c>
@@ -2061,16 +2065,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L16" s="48">
         <v>3658000</v>
       </c>
@@ -2078,10 +2082,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L18" s="48">
         <v>21570000</v>
       </c>
@@ -2089,13 +2093,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="12:13" x14ac:dyDescent="0.35">
       <c r="L21" s="48">
         <v>28492000</v>
       </c>
@@ -2103,97 +2107,97 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="21.4" x14ac:dyDescent="0.8">
+    <row r="33" spans="2:14" ht="22" x14ac:dyDescent="0.65">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-    </row>
-    <row r="35" spans="2:14" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-    </row>
-    <row r="36" spans="2:14" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5">
         <v>50000</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="58"/>
-    </row>
-    <row r="39" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D39" s="59" t="s">
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
+    </row>
+    <row r="39" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="7">
         <v>2012</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="62"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D40" s="61"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="63"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="8">
         <v>2010</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="65"/>
-    </row>
-    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D41" s="64"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
+    </row>
+    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="9">
         <v>0.94218268901813196</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="66"/>
       <c r="M42" t="s">
         <v>0</v>
       </c>
@@ -2201,20 +2205,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="10">
         <v>1.100724186648488</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="55"/>
       <c r="M43" t="s">
         <v>129</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M44" t="s">
         <v>131</v>
       </c>
@@ -2230,7 +2234,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="16.149999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>113</v>
       </c>
@@ -2247,7 +2251,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:14" ht="53.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="14" t="s">
         <v>45</v>
       </c>
@@ -2276,7 +2280,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
         <v>49</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B48" s="24" t="s">
         <v>50</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B49" s="29" t="s">
         <v>55</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B50" s="29" t="s">
         <v>56</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B51" s="29" t="s">
         <v>57</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52" s="29" t="s">
         <v>58</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B53" s="29" t="s">
         <v>59</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B54" s="29" t="s">
         <v>60</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B55" s="29" t="s">
         <v>61</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B56" s="29" t="s">
         <v>62</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B57" s="29" t="s">
         <v>63</v>
       </c>
@@ -2620,7 +2624,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B58" s="30"/>
       <c r="C58" s="31">
         <v>101812500</v>
@@ -2648,7 +2652,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C59" s="36"/>
       <c r="M59" t="s">
         <v>9</v>
@@ -2657,7 +2661,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M60" t="s">
         <v>10</v>
       </c>
@@ -2665,7 +2669,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B61" s="37" t="s">
         <v>51</v>
       </c>
@@ -2679,7 +2683,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B62" s="38" t="s">
         <v>52</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63" s="38" t="s">
         <v>53</v>
       </c>
@@ -2707,7 +2711,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64" s="37" t="s">
         <v>49</v>
       </c>
@@ -2721,7 +2725,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B65" s="37" t="s">
         <v>54</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B66" s="41" t="s">
         <v>55</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B67" s="41" t="s">
         <v>56</v>
       </c>
@@ -2763,7 +2767,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B68" s="41" t="s">
         <v>57</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B69" s="41" t="s">
         <v>58</v>
       </c>
@@ -2791,7 +2795,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B70" s="41" t="s">
         <v>59</v>
       </c>
@@ -2805,7 +2809,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B71" s="41" t="s">
         <v>60</v>
       </c>
@@ -2819,7 +2823,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B72" s="41" t="s">
         <v>61</v>
       </c>
@@ -2833,7 +2837,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B73" s="41" t="s">
         <v>62</v>
       </c>
@@ -2847,7 +2851,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B74" s="41" t="s">
         <v>63</v>
       </c>
@@ -2861,7 +2865,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M75" t="s">
         <v>22</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M76" t="s">
         <v>23</v>
       </c>
@@ -2877,7 +2881,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M77" t="s">
         <v>24</v>
       </c>
@@ -2885,7 +2889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M78" t="s">
         <v>25</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M79" t="s">
         <v>26</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M80" t="s">
         <v>27</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="11:14" x14ac:dyDescent="0.35">
       <c r="M81" t="s">
         <v>28</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="11:14" x14ac:dyDescent="0.35">
       <c r="M82" t="s">
         <v>29</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="11:14" x14ac:dyDescent="0.35">
       <c r="M83" t="s">
         <v>30</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K86" s="48">
         <v>1088450000</v>
       </c>
@@ -2941,7 +2945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K87" s="48">
         <v>483000000</v>
       </c>
@@ -2949,13 +2953,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K90" s="48">
         <v>87900000</v>
       </c>
@@ -2963,10 +2967,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K92" s="48">
         <v>250600000</v>
       </c>
@@ -2974,13 +2978,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K95" s="48">
         <v>191000000</v>
       </c>
@@ -2988,7 +2992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K98" s="47">
         <f>SUM(K86:K95)</f>
         <v>2100950000</v>
@@ -3005,7 +3009,7 @@
     <mergeCell ref="D42:H42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1992</formula1>
       <formula2>2016</formula2>
     </dataValidation>
@@ -3016,66 +3020,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3:AS8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
         <v>124</v>
       </c>
@@ -3206,7 +3210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3725,400 +3729,400 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="50">
-        <f>B5</f>
+        <f t="shared" ref="B6:AQ6" si="0">B5</f>
         <v>0</v>
       </c>
       <c r="C6" s="50">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="50">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="50">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="50">
-        <f>F5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="50">
-        <f>G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="50">
-        <f>H5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="50">
-        <f>I5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="50">
-        <f>J5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="50">
-        <f>K5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6" s="50">
-        <f>L5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="50">
-        <f>M5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6" s="50">
-        <f>N5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O6" s="50">
-        <f>O5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6" s="50">
-        <f>P5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q6" s="50">
-        <f>Q5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6" s="50">
-        <f>R5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S6" s="50">
-        <f>S5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T6" s="50">
-        <f>T5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U6" s="50">
-        <f>U5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V6" s="50">
-        <f>V5</f>
+        <f t="shared" si="0"/>
         <v>0.55991337252195439</v>
       </c>
       <c r="W6" s="50">
-        <f>W5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X6" s="50">
-        <f>X5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y6" s="50">
-        <f>Y5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z6" s="50">
-        <f>Z5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA6" s="50">
-        <f>AA5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB6" s="50">
-        <f>AB5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC6" s="50">
-        <f>AC5</f>
+        <f t="shared" si="0"/>
         <v>0.34917537304552704</v>
       </c>
       <c r="AD6" s="50">
-        <f>AD5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE6" s="50">
-        <f>AE5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF6" s="50">
-        <f>AF5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG6" s="50">
-        <f>AG5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH6" s="50">
-        <f>AH5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI6" s="50">
-        <f>AI5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ6" s="50">
-        <f>AJ5</f>
+        <f t="shared" si="0"/>
         <v>9.0911254432518629E-2</v>
       </c>
       <c r="AK6" s="50">
-        <f>AK5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AL6" s="50">
-        <f>AL5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM6" s="50">
-        <f>AM5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AN6" s="50">
-        <f>AN5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AO6" s="50">
-        <f>AO5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AP6" s="50">
-        <f>AP5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AQ6" s="50">
-        <f>AQ5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="50">
-        <f>B5</f>
+        <f t="shared" ref="B7:AQ7" si="1">B5</f>
         <v>0</v>
       </c>
       <c r="C7" s="50">
-        <f>C5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7" s="50">
-        <f>D5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E7" s="50">
-        <f>E5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" s="50">
-        <f>F5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="50">
-        <f>G5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="50">
-        <f>H5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="50">
-        <f>I5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="50">
-        <f>J5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="50">
-        <f>K5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L7" s="50">
-        <f>L5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M7" s="50">
-        <f>M5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="50">
-        <f>N5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O7" s="50">
-        <f>O5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P7" s="50">
-        <f>P5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7" s="50">
-        <f>Q5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R7" s="50">
-        <f>R5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S7" s="50">
-        <f>S5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T7" s="50">
-        <f>T5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U7" s="50">
-        <f>U5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V7" s="50">
-        <f>V5</f>
+        <f t="shared" si="1"/>
         <v>0.55991337252195439</v>
       </c>
       <c r="W7" s="50">
-        <f>W5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X7" s="50">
-        <f>X5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y7" s="50">
-        <f>Y5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z7" s="50">
-        <f>Z5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA7" s="50">
-        <f>AA5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB7" s="50">
-        <f>AB5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC7" s="50">
-        <f>AC5</f>
+        <f t="shared" si="1"/>
         <v>0.34917537304552704</v>
       </c>
       <c r="AD7" s="50">
-        <f>AD5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE7" s="50">
-        <f>AE5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF7" s="50">
-        <f>AF5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG7" s="50">
-        <f>AG5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH7" s="50">
-        <f>AH5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI7" s="50">
-        <f>AI5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="50">
-        <f>AJ5</f>
+        <f t="shared" si="1"/>
         <v>9.0911254432518629E-2</v>
       </c>
       <c r="AK7" s="50">
-        <f>AK5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL7" s="50">
-        <f>AL5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM7" s="50">
-        <f>AM5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN7" s="50">
-        <f>AN5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO7" s="50">
-        <f>AO5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP7" s="50">
-        <f>AP5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ7" s="50">
-        <f>AQ5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A9" s="66" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A9" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="52"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -4263,7 +4267,7 @@
         <v>131</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F11" s="51" t="s">
         <v>2</v>
@@ -4290,7 +4294,7 @@
         <v>126</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O11" s="51" t="s">
         <v>133</v>
@@ -4305,13 +4309,13 @@
         <v>136</v>
       </c>
       <c r="S11" s="51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T11" s="51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U11" s="51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V11" s="51" t="s">
         <v>12</v>
@@ -4320,7 +4324,7 @@
         <v>13</v>
       </c>
       <c r="X11" s="51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y11" s="51" t="s">
         <v>15</v>
@@ -4386,25 +4390,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AQ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="10.73046875" customWidth="1"/>
-    <col min="27" max="27" width="13.1328125" customWidth="1"/>
-    <col min="28" max="43" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="10.7265625" customWidth="1"/>
+    <col min="27" max="27" width="13.08984375" customWidth="1"/>
+    <col min="28" max="43" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
         <v>124</v>
       </c>
@@ -4535,7 +4539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4617,11 +4621,11 @@
       </c>
       <c r="U2" s="50">
         <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
-        <v>0</v>
+        <v>0.20535714285714285</v>
       </c>
       <c r="V2" s="50">
         <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
-        <v>0.87499999999999978</v>
+        <v>0.66964285714285687</v>
       </c>
       <c r="W2" s="50">
         <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
@@ -4708,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4881,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5054,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>

--- a/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
+++ b/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\hydgn\SoHPCCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E80F06-AEFD-4EF8-B1FC-0F271AC25761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Pre ISIC Consolidation" sheetId="4" r:id="rId3"/>
-    <sheet name="SoHPCCbRIC" sheetId="2" r:id="rId4"/>
+    <sheet name="SoHPCCbRIC" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="CEPCIinflator">Data!$C$11</definedName>
     <definedName name="CPIinflator">Data!$C$12</definedName>
     <definedName name="CurrentYear">Data!$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="149">
   <si>
     <t>ISIC 01T03</t>
   </si>
@@ -483,22 +483,16 @@
     <t>Water and waste</t>
   </si>
   <si>
-    <t>EU ISIC Consolidation</t>
-  </si>
-  <si>
-    <t>Default EPS ISIC Groupings</t>
-  </si>
-  <si>
-    <t>EU ISIC Groupings</t>
-  </si>
-  <si>
-    <t>Hydrogen Capital Costs</t>
+    <t>electrolysis with guaranteed clean electricity</t>
+  </si>
+  <si>
+    <t>natural gas reforming with CCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -593,7 +587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,12 +630,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -1127,7 +1115,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1142,11 +1130,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1158,13 +1146,13 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1273,7 +1261,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1281,8 +1268,8 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1290,8 +1277,8 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1300,15 +1287,14 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1867,22 +1853,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.1328125" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1890,136 +1876,136 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="43">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="43">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="43">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2027,22 +2013,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B10:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="99.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L10" s="48">
         <v>68084000</v>
       </c>
@@ -2050,10 +2036,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L12" s="48">
         <v>49148000</v>
       </c>
@@ -2061,16 +2047,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L16" s="48">
         <v>3658000</v>
       </c>
@@ -2078,10 +2064,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L18" s="48">
         <v>21570000</v>
       </c>
@@ -2089,13 +2075,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="12:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L21" s="48">
         <v>28492000</v>
       </c>
@@ -2103,97 +2089,97 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="21.4" x14ac:dyDescent="0.8">
+    <row r="33" spans="2:14" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-    </row>
-    <row r="35" spans="2:14" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-    </row>
-    <row r="36" spans="2:14" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5">
         <v>50000</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="58"/>
-    </row>
-    <row r="39" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D39" s="59" t="s">
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="7">
         <v>2012</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="62"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="8">
         <v>2010</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="65"/>
-    </row>
-    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
+    </row>
+    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="9">
         <v>0.94218268901813196</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
       <c r="M42" t="s">
         <v>0</v>
       </c>
@@ -2201,20 +2187,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="10">
         <v>1.100724186648488</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
       <c r="M43" t="s">
         <v>129</v>
       </c>
@@ -2222,7 +2208,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M44" t="s">
         <v>131</v>
       </c>
@@ -2230,7 +2216,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="16.149999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>113</v>
       </c>
@@ -2247,7 +2233,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:14" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>45</v>
       </c>
@@ -2276,7 +2262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>49</v>
       </c>
@@ -2308,7 +2294,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
         <v>50</v>
       </c>
@@ -2332,7 +2318,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
         <v>55</v>
       </c>
@@ -2364,7 +2350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
         <v>56</v>
       </c>
@@ -2396,7 +2382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>57</v>
       </c>
@@ -2428,7 +2414,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="29" t="s">
         <v>58</v>
       </c>
@@ -2460,7 +2446,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="29" t="s">
         <v>59</v>
       </c>
@@ -2492,7 +2478,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
         <v>60</v>
       </c>
@@ -2524,7 +2510,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="29" t="s">
         <v>61</v>
       </c>
@@ -2556,7 +2542,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
         <v>62</v>
       </c>
@@ -2588,7 +2574,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
         <v>63</v>
       </c>
@@ -2620,7 +2606,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
       <c r="C58" s="31">
         <v>101812500</v>
@@ -2648,7 +2634,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36"/>
       <c r="M59" t="s">
         <v>9</v>
@@ -2657,7 +2643,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
         <v>10</v>
       </c>
@@ -2665,7 +2651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
         <v>51</v>
       </c>
@@ -2679,7 +2665,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
         <v>52</v>
       </c>
@@ -2693,7 +2679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
         <v>53</v>
       </c>
@@ -2707,7 +2693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
         <v>49</v>
       </c>
@@ -2721,7 +2707,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
         <v>54</v>
       </c>
@@ -2735,7 +2721,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="41" t="s">
         <v>55</v>
       </c>
@@ -2749,7 +2735,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="41" t="s">
         <v>56</v>
       </c>
@@ -2763,7 +2749,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="41" t="s">
         <v>57</v>
       </c>
@@ -2777,7 +2763,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="41" t="s">
         <v>58</v>
       </c>
@@ -2791,7 +2777,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="41" t="s">
         <v>59</v>
       </c>
@@ -2805,7 +2791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="41" t="s">
         <v>60</v>
       </c>
@@ -2819,7 +2805,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="41" t="s">
         <v>61</v>
       </c>
@@ -2833,7 +2819,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="41" t="s">
         <v>62</v>
       </c>
@@ -2847,7 +2833,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="41" t="s">
         <v>63</v>
       </c>
@@ -2861,7 +2847,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
         <v>22</v>
       </c>
@@ -2869,7 +2855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
         <v>23</v>
       </c>
@@ -2877,7 +2863,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
         <v>24</v>
       </c>
@@ -2885,7 +2871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
         <v>25</v>
       </c>
@@ -2893,7 +2879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M79" t="s">
         <v>26</v>
       </c>
@@ -2901,7 +2887,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M80" t="s">
         <v>27</v>
       </c>
@@ -2909,7 +2895,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
         <v>28</v>
       </c>
@@ -2917,7 +2903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
         <v>29</v>
       </c>
@@ -2925,7 +2911,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="11:14" x14ac:dyDescent="0.25">
       <c r="M83" t="s">
         <v>30</v>
       </c>
@@ -2933,7 +2919,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K86" s="48">
         <v>1088450000</v>
       </c>
@@ -2941,7 +2927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K87" s="48">
         <v>483000000</v>
       </c>
@@ -2949,13 +2935,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K90" s="48">
         <v>87900000</v>
       </c>
@@ -2963,10 +2949,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K92" s="48">
         <v>250600000</v>
       </c>
@@ -2974,13 +2960,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="11:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K95" s="48">
         <v>191000000</v>
       </c>
@@ -2988,7 +2974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K98" s="47">
         <f>SUM(K86:K95)</f>
         <v>2100950000</v>
@@ -3005,7 +2991,7 @@
     <mergeCell ref="D42:H42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1992</formula1>
       <formula2>2016</formula2>
     </dataValidation>
@@ -3016,2387 +3002,1363 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:AQ11"/>
-  <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3:AS8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A1" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q2" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="S2" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA2" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB2" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC2" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG2" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI2" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ2" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK2" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL2" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM2" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN2" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO2" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP2" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ2" s="51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,B2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,C2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,D2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,E2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,F2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,G2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,H2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,I2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,J2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,K2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,L2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,M2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,N2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,O2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,P2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Q2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,R2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,S2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,T2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,U2,Data!$J$47:$J$58)</f>
-        <v>0.20535714285714285</v>
-      </c>
-      <c r="V3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,V2,Data!$J$47:$J$58)</f>
-        <v>0.66964285714285687</v>
-      </c>
-      <c r="W3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,W2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,X2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Y2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Z2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AA2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AB2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AC2,Data!$J$47:$J$58)</f>
-        <v>0.12499999999999986</v>
-      </c>
-      <c r="AD3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AD2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AE2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AF2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AG2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AH2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AI2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AJ2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AK2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AL2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AM2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AN2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AO2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AP2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AQ2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!B2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!C2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!D2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!E2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!F2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!G2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!H2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!I2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!J2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!K2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!L2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!M2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!N2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!O2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!P2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Q2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!R2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!S2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!T2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!U2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!V2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41966165941316863</v>
-      </c>
-      <c r="W4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!W2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!X2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Y2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Z2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AA2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AB2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AC2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41367167392016474</v>
-      </c>
-      <c r="AD4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AD2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AE2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AF2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AG2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AH2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AI2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AJ2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AK4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AK2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AL2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AM2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AN2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AO2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AP2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AQ2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,B2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,C2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,D2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,E2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,F2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,G2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,H2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,I2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,J2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,K2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,L2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,M2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,N2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,O2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,P2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Q2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,R2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,S2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,T2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,U2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,V2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0.55991337252195439</v>
-      </c>
-      <c r="W5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,W2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,X2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Y2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Z2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AA2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AB2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AC2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0.34917537304552704</v>
-      </c>
-      <c r="AD5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AD2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AE2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AF2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AG2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AH2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AI2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AJ2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>9.0911254432518629E-2</v>
-      </c>
-      <c r="AK5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AK2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AL2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AM2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AN2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AO2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AP5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AP2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AQ2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="50">
-        <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="50">
-        <f>C5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="50">
-        <f>D5</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="50">
-        <f>E5</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="50">
-        <f>F5</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="50">
-        <f>G5</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="50">
-        <f>H5</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="50">
-        <f>I5</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="50">
-        <f>J5</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="50">
-        <f>K5</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="50">
-        <f>L5</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="50">
-        <f>M5</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="50">
-        <f>N5</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="50">
-        <f>O5</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="50">
-        <f>P5</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="50">
-        <f>Q5</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="50">
-        <f>R5</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="50">
-        <f>S5</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="50">
-        <f>T5</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="50">
-        <f>U5</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="50">
-        <f>V5</f>
-        <v>0.55991337252195439</v>
-      </c>
-      <c r="W6" s="50">
-        <f>W5</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="50">
-        <f>X5</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="50">
-        <f>Y5</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="50">
-        <f>Z5</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="50">
-        <f>AA5</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="50">
-        <f>AB5</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="50">
-        <f>AC5</f>
-        <v>0.34917537304552704</v>
-      </c>
-      <c r="AD6" s="50">
-        <f>AD5</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="50">
-        <f>AE5</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="50">
-        <f>AF5</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="50">
-        <f>AG5</f>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="50">
-        <f>AH5</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="50">
-        <f>AI5</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="50">
-        <f>AJ5</f>
-        <v>9.0911254432518629E-2</v>
-      </c>
-      <c r="AK6" s="50">
-        <f>AK5</f>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="50">
-        <f>AL5</f>
-        <v>0</v>
-      </c>
-      <c r="AM6" s="50">
-        <f>AM5</f>
-        <v>0</v>
-      </c>
-      <c r="AN6" s="50">
-        <f>AN5</f>
-        <v>0</v>
-      </c>
-      <c r="AO6" s="50">
-        <f>AO5</f>
-        <v>0</v>
-      </c>
-      <c r="AP6" s="50">
-        <f>AP5</f>
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="50">
-        <f>AQ5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="50">
-        <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="50">
-        <f>C5</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="50">
-        <f>D5</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="50">
-        <f>E5</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="50">
-        <f>F5</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="50">
-        <f>G5</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="50">
-        <f>H5</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="50">
-        <f>I5</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="50">
-        <f>J5</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="50">
-        <f>K5</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="50">
-        <f>L5</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="50">
-        <f>M5</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="50">
-        <f>N5</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="50">
-        <f>O5</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="50">
-        <f>P5</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="50">
-        <f>Q5</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="50">
-        <f>R5</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="50">
-        <f>S5</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="50">
-        <f>T5</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="50">
-        <f>U5</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="50">
-        <f>V5</f>
-        <v>0.55991337252195439</v>
-      </c>
-      <c r="W7" s="50">
-        <f>W5</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="50">
-        <f>X5</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="50">
-        <f>Y5</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="50">
-        <f>Z5</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="50">
-        <f>AA5</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="50">
-        <f>AB5</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="50">
-        <f>AC5</f>
-        <v>0.34917537304552704</v>
-      </c>
-      <c r="AD7" s="50">
-        <f>AD5</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="50">
-        <f>AE5</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="50">
-        <f>AF5</f>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="50">
-        <f>AG5</f>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="50">
-        <f>AH5</f>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="50">
-        <f>AI5</f>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="50">
-        <f>AJ5</f>
-        <v>9.0911254432518629E-2</v>
-      </c>
-      <c r="AK7" s="50">
-        <f>AK5</f>
-        <v>0</v>
-      </c>
-      <c r="AL7" s="50">
-        <f>AL5</f>
-        <v>0</v>
-      </c>
-      <c r="AM7" s="50">
-        <f>AM5</f>
-        <v>0</v>
-      </c>
-      <c r="AN7" s="50">
-        <f>AN5</f>
-        <v>0</v>
-      </c>
-      <c r="AO7" s="50">
-        <f>AO5</f>
-        <v>0</v>
-      </c>
-      <c r="AP7" s="50">
-        <f>AP5</f>
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="50">
-        <f>AQ5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A9" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="N10" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="P10" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="R10" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="S10" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="V10" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="X10" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA10" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB10" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD10" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE10" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG10" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH10" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI10" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ10" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK10" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL10" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM10" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN10" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP10" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ10" s="51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="P11" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q11" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="R11" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="S11" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="X11" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA11" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB11" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD11" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE11" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG11" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH11" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI11" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ11" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK11" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL11" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM11" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN11" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP11" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ11" s="51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AQ6"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AQ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="10.73046875" customWidth="1"/>
-    <col min="27" max="27" width="13.1328125" customWidth="1"/>
-    <col min="28" max="43" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+    <col min="28" max="43" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="Y1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="Z1" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="AA1" s="51" t="s">
+      <c r="AA1" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="AB1" s="51" t="s">
+      <c r="AB1" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="AC1" s="51" t="s">
+      <c r="AC1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="51" t="s">
+      <c r="AD1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="51" t="s">
+      <c r="AE1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="51" t="s">
+      <c r="AG1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="51" t="s">
+      <c r="AH1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="51" t="s">
+      <c r="AI1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="51" t="s">
+      <c r="AJ1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="51" t="s">
+      <c r="AK1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="51" t="s">
+      <c r="AL1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="51" t="s">
+      <c r="AM1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AN1" s="51" t="s">
+      <c r="AN1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AO1" s="51" t="s">
+      <c r="AO1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AP1" s="51" t="s">
+      <c r="AP1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AQ1" s="51" t="s">
+      <c r="AQ1" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
-        <v>0.87499999999999978</v>
-      </c>
-      <c r="W2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+      <c r="B2">
+        <f>SUMIF(Data!$I$47:$I$58,B1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>SUMIF(Data!$I$47:$I$58,C1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>SUMIF(Data!$I$47:$I$58,D1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>SUMIF(Data!$I$47:$I$58,E1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUMIF(Data!$I$47:$I$58,F1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>SUMIF(Data!$I$47:$I$58,G1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUMIF(Data!$I$47:$I$58,H1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>SUMIF(Data!$I$47:$I$58,I1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUMIF(Data!$I$47:$I$58,J1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(Data!$I$47:$I$58,K1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>SUMIF(Data!$I$47:$I$58,L1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>SUMIF(Data!$I$47:$I$58,M1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>SUMIF(Data!$I$47:$I$58,N1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>SUMIF(Data!$I$47:$I$58,O1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>SUMIF(Data!$I$47:$I$58,P1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>SUMIF(Data!$I$47:$I$58,Q1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>SUMIF(Data!$I$47:$I$58,R1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>SUMIF(Data!$I$47:$I$58,S1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>SUMIF(Data!$I$47:$I$58,T1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>SUMIF(Data!$I$47:$I$58,U1,Data!$J$47:$J$58)</f>
+        <v>0.20535714285714285</v>
+      </c>
+      <c r="V2">
+        <f>SUMIF(Data!$I$47:$I$58,V1,Data!$J$47:$J$58)</f>
+        <v>0.66964285714285687</v>
+      </c>
+      <c r="W2">
+        <f>SUMIF(Data!$I$47:$I$58,W1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>SUMIF(Data!$I$47:$I$58,X1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>SUMIF(Data!$I$47:$I$58,Y1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>SUMIF(Data!$I$47:$I$58,Z1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>SUMIF(Data!$I$47:$I$58,AA1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>SUMIF(Data!$I$47:$I$58,AB1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>SUMIF(Data!$I$47:$I$58,AC1,Data!$J$47:$J$58)</f>
         <v>0.12499999999999986</v>
       </c>
-      <c r="Z2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AK2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AD2">
+        <f>SUMIF(Data!$I$47:$I$58,AD1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>SUMIF(Data!$I$47:$I$58,AE1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f>SUMIF(Data!$I$47:$I$58,AF1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f>SUMIF(Data!$I$47:$I$58,AG1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f>SUMIF(Data!$I$47:$I$58,AH1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f>SUMIF(Data!$I$47:$I$58,AI1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f>SUMIF(Data!$I$47:$I$58,AJ1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f>SUMIF(Data!$I$47:$I$58,AK1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <f>SUMIF(Data!$I$47:$I$58,AL1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <f>SUMIF(Data!$I$47:$I$58,AM1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <f>SUMIF(Data!$I$47:$I$58,AN1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <f>SUMIF(Data!$I$47:$I$58,AO1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <f>SUMIF(Data!$I$47:$I$58,AP1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <f>SUMIF(Data!$I$47:$I$58,AQ1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
+      <c r="B3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!B1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!C1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!D1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!E1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!F1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!G1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!H1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!I1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!J1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!K1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!L1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!M1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!N1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!O1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!P1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Q1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!R1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!S1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!T1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!U1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!V1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0.41966165941316863</v>
       </c>
-      <c r="W3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+      <c r="W3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!W1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!X1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Y1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Z1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AA1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AB1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AC1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0.41367167392016474</v>
       </c>
-      <c r="Z3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
+      <c r="AD3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AD1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AE1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AF1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AG1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AH1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AI1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AJ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="AK3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AK1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AL1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AM1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AN1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AO1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AP1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AQ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
+      <c r="B4">
+        <f>SUMIF(Data!$L$86:$L$95,B1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>SUMIF(Data!$L$86:$L$95,C1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SUMIF(Data!$L$86:$L$95,D1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>SUMIF(Data!$L$86:$L$95,E1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>SUMIF(Data!$L$86:$L$95,F1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>SUMIF(Data!$L$86:$L$95,G1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUMIF(Data!$L$86:$L$95,H1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>SUMIF(Data!$L$86:$L$95,I1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>SUMIF(Data!$L$86:$L$95,J1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>SUMIF(Data!$L$86:$L$95,K1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>SUMIF(Data!$L$86:$L$95,L1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>SUMIF(Data!$L$86:$L$95,M1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>SUMIF(Data!$L$86:$L$95,N1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>SUMIF(Data!$L$86:$L$95,O1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>SUMIF(Data!$L$86:$L$95,P1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>SUMIF(Data!$L$86:$L$95,Q1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>SUMIF(Data!$L$86:$L$95,R1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>SUMIF(Data!$L$86:$L$95,S1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>SUMIF(Data!$L$86:$L$95,T1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>SUMIF(Data!$L$86:$L$95,U1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>SUMIF(Data!$L$86:$L$95,V1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0.55991337252195439</v>
       </c>
-      <c r="W4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+      <c r="W4">
+        <f>SUMIF(Data!$L$86:$L$95,W1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>SUMIF(Data!$L$86:$L$95,X1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>SUMIF(Data!$L$86:$L$95,Y1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>SUMIF(Data!$L$86:$L$95,Z1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>SUMIF(Data!$L$86:$L$95,AA1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f>SUMIF(Data!$L$86:$L$95,AB1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f>SUMIF(Data!$L$86:$L$95,AC1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0.34917537304552704</v>
       </c>
-      <c r="Z4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
+      <c r="AD4">
+        <f>SUMIF(Data!$L$86:$L$95,AD1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f>SUMIF(Data!$L$86:$L$95,AE1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f>SUMIF(Data!$L$86:$L$95,AF1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f>SUMIF(Data!$L$86:$L$95,AG1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f>SUMIF(Data!$L$86:$L$95,AH1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f>SUMIF(Data!$L$86:$L$95,AI1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f>SUMIF(Data!$L$86:$L$95,AJ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AK4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK4">
+        <f>SUMIF(Data!$L$86:$L$95,AK1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <f>SUMIF(Data!$L$86:$L$95,AL1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <f>SUMIF(Data!$L$86:$L$95,AM1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f>SUMIF(Data!$L$86:$L$95,AN1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f>SUMIF(Data!$L$86:$L$95,AO1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <f>SUMIF(Data!$L$86:$L$95,AP1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <f>SUMIF(Data!$L$86:$L$95,AQ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
+      <c r="B5">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:AQ5" si="0">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5" si="1">D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5" si="2">M4</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5" si="3">P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5" si="4">R4</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
         <v>0.55991337252195439</v>
       </c>
-      <c r="W5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AB5" si="5">AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
         <v>0.34917537304552704</v>
       </c>
-      <c r="Z5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AK5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
+      <c r="B6">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:AQ6" si="6">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6" si="7">D4</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6" si="8">M4</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6" si="9">P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6" si="10">R4</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
         <v>0.55991337252195439</v>
       </c>
-      <c r="W6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+      <c r="W6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AB6" si="11">AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="6"/>
         <v>0.34917537304552704</v>
       </c>
-      <c r="Z6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
+      <c r="AD6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="6"/>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AK6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
+      <c r="AK6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:AQ7" si="12">C2</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="12"/>
+        <v>0.20535714285714285</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="12"/>
+        <v>0.66964285714285687</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="12"/>
+        <v>0.12499999999999986</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:AQ8" si="13">C3</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="13"/>
+        <v>0.41966165941316863</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="13"/>
+        <v>0.41367167392016474</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="13"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
+++ b/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\hydgn\SoHPCCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE7769B-71AC-49D1-A722-F920CCFF07A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E80F06-AEFD-4EF8-B1FC-0F271AC25761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28110" yWindow="945" windowWidth="25995" windowHeight="13605" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Pre ISIC Consolidation" sheetId="4" r:id="rId3"/>
-    <sheet name="SoHPCCbRIC" sheetId="2" r:id="rId4"/>
+    <sheet name="SoHPCCbRIC" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="CEPCIinflator">Data!$C$11</definedName>
@@ -34,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="149">
   <si>
     <t>ISIC 01T03</t>
   </si>
@@ -487,16 +483,10 @@
     <t>Water and waste</t>
   </si>
   <si>
-    <t>EU ISIC Consolidation</t>
-  </si>
-  <si>
-    <t>Default EPS ISIC Groupings</t>
-  </si>
-  <si>
-    <t>EU ISIC Groupings</t>
-  </si>
-  <si>
-    <t>Hydrogen Capital Costs</t>
+    <t>electrolysis with guaranteed clean electricity</t>
+  </si>
+  <si>
+    <t>natural gas reforming with CCS</t>
   </si>
 </sst>
 </file>
@@ -597,7 +587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,12 +630,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -1131,7 +1115,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1146,11 +1130,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1162,13 +1146,13 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1277,17 +1261,15 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1295,8 +1277,8 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1305,14 +1287,14 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1874,19 +1856,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.08984375" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1894,127 +1876,127 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="43">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="43">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="43">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -2036,17 +2018,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="99.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L10" s="48">
         <v>68084000</v>
       </c>
@@ -2054,10 +2036,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L12" s="48">
         <v>49148000</v>
       </c>
@@ -2065,16 +2047,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L16" s="48">
         <v>3658000</v>
       </c>
@@ -2082,10 +2064,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L18" s="48">
         <v>21570000</v>
       </c>
@@ -2093,13 +2075,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L21" s="48">
         <v>28492000</v>
       </c>
@@ -2107,97 +2089,97 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="22" x14ac:dyDescent="0.65">
+    <row r="33" spans="2:14" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-    </row>
-    <row r="35" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-    </row>
-    <row r="36" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5">
         <v>50000</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="59"/>
-    </row>
-    <row r="39" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D39" s="60" t="s">
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="7">
         <v>2012</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="63"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="8">
         <v>2010</v>
       </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="66"/>
-    </row>
-    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
+    </row>
+    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="9">
         <v>0.94218268901813196</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="66"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
       <c r="M42" t="s">
         <v>0</v>
       </c>
@@ -2205,20 +2187,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="10">
         <v>1.100724186648488</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="55"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
       <c r="M43" t="s">
         <v>129</v>
       </c>
@@ -2226,7 +2208,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M44" t="s">
         <v>131</v>
       </c>
@@ -2234,7 +2216,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>113</v>
       </c>
@@ -2251,7 +2233,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="53.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:14" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>45</v>
       </c>
@@ -2280,7 +2262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>49</v>
       </c>
@@ -2312,7 +2294,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
         <v>50</v>
       </c>
@@ -2336,7 +2318,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
         <v>55</v>
       </c>
@@ -2368,7 +2350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
         <v>56</v>
       </c>
@@ -2400,7 +2382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>57</v>
       </c>
@@ -2432,7 +2414,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="29" t="s">
         <v>58</v>
       </c>
@@ -2464,7 +2446,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="29" t="s">
         <v>59</v>
       </c>
@@ -2496,7 +2478,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
         <v>60</v>
       </c>
@@ -2528,7 +2510,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="29" t="s">
         <v>61</v>
       </c>
@@ -2560,7 +2542,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
         <v>62</v>
       </c>
@@ -2592,7 +2574,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
         <v>63</v>
       </c>
@@ -2624,7 +2606,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
       <c r="C58" s="31">
         <v>101812500</v>
@@ -2652,7 +2634,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36"/>
       <c r="M59" t="s">
         <v>9</v>
@@ -2661,7 +2643,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
         <v>10</v>
       </c>
@@ -2669,7 +2651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
         <v>51</v>
       </c>
@@ -2683,7 +2665,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
         <v>52</v>
       </c>
@@ -2697,7 +2679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
         <v>53</v>
       </c>
@@ -2711,7 +2693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
         <v>49</v>
       </c>
@@ -2725,7 +2707,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
         <v>54</v>
       </c>
@@ -2739,7 +2721,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="41" t="s">
         <v>55</v>
       </c>
@@ -2753,7 +2735,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="41" t="s">
         <v>56</v>
       </c>
@@ -2767,7 +2749,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="41" t="s">
         <v>57</v>
       </c>
@@ -2781,7 +2763,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="41" t="s">
         <v>58</v>
       </c>
@@ -2795,7 +2777,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="41" t="s">
         <v>59</v>
       </c>
@@ -2809,7 +2791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="41" t="s">
         <v>60</v>
       </c>
@@ -2823,7 +2805,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="41" t="s">
         <v>61</v>
       </c>
@@ -2837,7 +2819,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="41" t="s">
         <v>62</v>
       </c>
@@ -2851,7 +2833,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="41" t="s">
         <v>63</v>
       </c>
@@ -2865,7 +2847,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
         <v>22</v>
       </c>
@@ -2873,7 +2855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
         <v>23</v>
       </c>
@@ -2881,7 +2863,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
         <v>24</v>
       </c>
@@ -2889,7 +2871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
         <v>25</v>
       </c>
@@ -2897,7 +2879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M79" t="s">
         <v>26</v>
       </c>
@@ -2905,7 +2887,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M80" t="s">
         <v>27</v>
       </c>
@@ -2913,7 +2895,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
         <v>28</v>
       </c>
@@ -2921,7 +2903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
         <v>29</v>
       </c>
@@ -2929,7 +2911,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="11:14" x14ac:dyDescent="0.25">
       <c r="M83" t="s">
         <v>30</v>
       </c>
@@ -2937,7 +2919,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K86" s="48">
         <v>1088450000</v>
       </c>
@@ -2945,7 +2927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K87" s="48">
         <v>483000000</v>
       </c>
@@ -2953,13 +2935,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K90" s="48">
         <v>87900000</v>
       </c>
@@ -2967,10 +2949,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K92" s="48">
         <v>250600000</v>
       </c>
@@ -2978,13 +2960,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K95" s="48">
         <v>191000000</v>
       </c>
@@ -2992,7 +2974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K98" s="47">
         <f>SUM(K86:K95)</f>
         <v>2100950000</v>
@@ -3022,2385 +3004,1361 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor theme="8"/>
+    <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AQ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+    <col min="28" max="43" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51" t="s">
+      <c r="B1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O1" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P1" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q1" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R1" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="T1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="U1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="51" t="s">
+      <c r="V1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="51" t="s">
+      <c r="W1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="X1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="51" t="s">
+      <c r="Y1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="51" t="s">
+      <c r="Z1" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="AA2" s="51" t="s">
+      <c r="AA1" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="AB2" s="51" t="s">
+      <c r="AB1" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="AC2" s="51" t="s">
+      <c r="AC1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="51" t="s">
+      <c r="AD1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="51" t="s">
+      <c r="AE1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="51" t="s">
+      <c r="AF1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="51" t="s">
+      <c r="AG1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" s="51" t="s">
+      <c r="AH1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="51" t="s">
+      <c r="AI1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="51" t="s">
+      <c r="AJ1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="51" t="s">
+      <c r="AK1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="AL2" s="51" t="s">
+      <c r="AL1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="51" t="s">
+      <c r="AM1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="51" t="s">
+      <c r="AN1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AO2" s="51" t="s">
+      <c r="AO1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AP2" s="51" t="s">
+      <c r="AP1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AQ2" s="51" t="s">
+      <c r="AQ1" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <f>SUMIF(Data!$I$47:$I$58,B1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>SUMIF(Data!$I$47:$I$58,C1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>SUMIF(Data!$I$47:$I$58,D1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>SUMIF(Data!$I$47:$I$58,E1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUMIF(Data!$I$47:$I$58,F1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>SUMIF(Data!$I$47:$I$58,G1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUMIF(Data!$I$47:$I$58,H1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>SUMIF(Data!$I$47:$I$58,I1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUMIF(Data!$I$47:$I$58,J1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(Data!$I$47:$I$58,K1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>SUMIF(Data!$I$47:$I$58,L1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>SUMIF(Data!$I$47:$I$58,M1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>SUMIF(Data!$I$47:$I$58,N1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>SUMIF(Data!$I$47:$I$58,O1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>SUMIF(Data!$I$47:$I$58,P1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>SUMIF(Data!$I$47:$I$58,Q1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>SUMIF(Data!$I$47:$I$58,R1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>SUMIF(Data!$I$47:$I$58,S1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>SUMIF(Data!$I$47:$I$58,T1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>SUMIF(Data!$I$47:$I$58,U1,Data!$J$47:$J$58)</f>
+        <v>0.20535714285714285</v>
+      </c>
+      <c r="V2">
+        <f>SUMIF(Data!$I$47:$I$58,V1,Data!$J$47:$J$58)</f>
+        <v>0.66964285714285687</v>
+      </c>
+      <c r="W2">
+        <f>SUMIF(Data!$I$47:$I$58,W1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>SUMIF(Data!$I$47:$I$58,X1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>SUMIF(Data!$I$47:$I$58,Y1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>SUMIF(Data!$I$47:$I$58,Z1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>SUMIF(Data!$I$47:$I$58,AA1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>SUMIF(Data!$I$47:$I$58,AB1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>SUMIF(Data!$I$47:$I$58,AC1,Data!$J$47:$J$58)</f>
+        <v>0.12499999999999986</v>
+      </c>
+      <c r="AD2">
+        <f>SUMIF(Data!$I$47:$I$58,AD1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>SUMIF(Data!$I$47:$I$58,AE1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f>SUMIF(Data!$I$47:$I$58,AF1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f>SUMIF(Data!$I$47:$I$58,AG1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f>SUMIF(Data!$I$47:$I$58,AH1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f>SUMIF(Data!$I$47:$I$58,AI1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f>SUMIF(Data!$I$47:$I$58,AJ1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f>SUMIF(Data!$I$47:$I$58,AK1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <f>SUMIF(Data!$I$47:$I$58,AL1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <f>SUMIF(Data!$I$47:$I$58,AM1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <f>SUMIF(Data!$I$47:$I$58,AN1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <f>SUMIF(Data!$I$47:$I$58,AO1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <f>SUMIF(Data!$I$47:$I$58,AP1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <f>SUMIF(Data!$I$47:$I$58,AQ1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,B2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,C2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,D2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,E2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,F2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,G2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,H2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,I2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,J2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,K2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,L2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,M2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,N2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,O2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,P2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Q2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,R2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,S2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,T2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,U2,Data!$J$47:$J$58)</f>
-        <v>0.20535714285714285</v>
-      </c>
-      <c r="V3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,V2,Data!$J$47:$J$58)</f>
-        <v>0.66964285714285687</v>
-      </c>
-      <c r="W3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,W2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,X2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Y2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,Z2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AA2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AB2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AC2,Data!$J$47:$J$58)</f>
-        <v>0.12499999999999986</v>
-      </c>
-      <c r="AD3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AD2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AE2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AF2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AG2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AH2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AI2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AJ2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AK2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AL2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AM2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AN2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AO2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AP2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AQ2,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!B1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!C1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!D1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!E1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!F1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!G1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!H1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!I1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!J1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!K1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!L1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!M1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!N1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!O1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!P1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Q1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!R1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!S1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!T1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!U1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!V1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.41966165941316863</v>
+      </c>
+      <c r="W3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!W1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!X1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Y1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Z1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AA1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AB1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AC1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.41367167392016474</v>
+      </c>
+      <c r="AD3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AD1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AE1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AF1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AG1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AH1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AI1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AJ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AK3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AK1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AL1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AM1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AN1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AO1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AP1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AQ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!B2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!C2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!D2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!E2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!F2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!G2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!H2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!I2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!J2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!K2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!L2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!M2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!N2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!O2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!P2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Q2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!R2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!S2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!T2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!U2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!V2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41966165941316863</v>
-      </c>
-      <c r="W4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!W2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!X2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Y2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!Z2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AA2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AB2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AC2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41367167392016474</v>
-      </c>
-      <c r="AD4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AD2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AE2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AF2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AG2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AH2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AI2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AJ2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AK4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AK2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AL2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AM2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AN2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AO2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AP2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,'Pre ISIC Consolidation'!AQ2,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <f>SUMIF(Data!$L$86:$L$95,B1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>SUMIF(Data!$L$86:$L$95,C1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SUMIF(Data!$L$86:$L$95,D1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>SUMIF(Data!$L$86:$L$95,E1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>SUMIF(Data!$L$86:$L$95,F1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>SUMIF(Data!$L$86:$L$95,G1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUMIF(Data!$L$86:$L$95,H1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>SUMIF(Data!$L$86:$L$95,I1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>SUMIF(Data!$L$86:$L$95,J1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>SUMIF(Data!$L$86:$L$95,K1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>SUMIF(Data!$L$86:$L$95,L1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>SUMIF(Data!$L$86:$L$95,M1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>SUMIF(Data!$L$86:$L$95,N1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>SUMIF(Data!$L$86:$L$95,O1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>SUMIF(Data!$L$86:$L$95,P1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>SUMIF(Data!$L$86:$L$95,Q1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>SUMIF(Data!$L$86:$L$95,R1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>SUMIF(Data!$L$86:$L$95,S1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>SUMIF(Data!$L$86:$L$95,T1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>SUMIF(Data!$L$86:$L$95,U1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>SUMIF(Data!$L$86:$L$95,V1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0.55991337252195439</v>
+      </c>
+      <c r="W4">
+        <f>SUMIF(Data!$L$86:$L$95,W1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>SUMIF(Data!$L$86:$L$95,X1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>SUMIF(Data!$L$86:$L$95,Y1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>SUMIF(Data!$L$86:$L$95,Z1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>SUMIF(Data!$L$86:$L$95,AA1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f>SUMIF(Data!$L$86:$L$95,AB1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f>SUMIF(Data!$L$86:$L$95,AC1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0.34917537304552704</v>
+      </c>
+      <c r="AD4">
+        <f>SUMIF(Data!$L$86:$L$95,AD1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f>SUMIF(Data!$L$86:$L$95,AE1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f>SUMIF(Data!$L$86:$L$95,AF1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f>SUMIF(Data!$L$86:$L$95,AG1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f>SUMIF(Data!$L$86:$L$95,AH1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f>SUMIF(Data!$L$86:$L$95,AI1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f>SUMIF(Data!$L$86:$L$95,AJ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>9.0911254432518629E-2</v>
+      </c>
+      <c r="AK4">
+        <f>SUMIF(Data!$L$86:$L$95,AK1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <f>SUMIF(Data!$L$86:$L$95,AL1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <f>SUMIF(Data!$L$86:$L$95,AM1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f>SUMIF(Data!$L$86:$L$95,AN1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f>SUMIF(Data!$L$86:$L$95,AO1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <f>SUMIF(Data!$L$86:$L$95,AP1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <f>SUMIF(Data!$L$86:$L$95,AQ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,B2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,C2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,D2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,E2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,F2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,G2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,H2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,I2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,J2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,K2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,L2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,M2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,N2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,O2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,P2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Q2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,R2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,S2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,T2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,U2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,V2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0.55991337252195439</v>
-      </c>
-      <c r="W5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,W2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,X2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Y2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Z2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AA2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AB2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AC2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0.34917537304552704</v>
-      </c>
-      <c r="AD5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AD2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AE2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AF2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AG2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AH2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AI2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AJ2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>9.0911254432518629E-2</v>
-      </c>
-      <c r="AK5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AK2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AL2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AM2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AN2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AO2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AP5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AP2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AQ2,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="50">
-        <f t="shared" ref="B6:AQ6" si="0">B5</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="50">
+      <c r="B5">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:AQ5" si="0">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5" si="1">D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="50">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="50">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="50">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="50">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="50">
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="50">
+      <c r="L5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="50">
+      <c r="M5">
+        <f t="shared" ref="M5" si="2">M4</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="50">
+      <c r="O5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="50">
+      <c r="P5">
+        <f t="shared" ref="P5" si="3">P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="50">
+      <c r="R5">
+        <f t="shared" ref="R5" si="4">R4</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6" s="50">
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="50">
+      <c r="U5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="50">
+      <c r="V5">
         <f t="shared" si="0"/>
         <v>0.55991337252195439</v>
       </c>
-      <c r="W6" s="50">
+      <c r="W5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X6" s="50">
+      <c r="X5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="50">
+      <c r="Y5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="50">
+      <c r="Z5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="50">
+      <c r="AA5">
+        <f t="shared" ref="AA5:AB5" si="5">AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
         <f t="shared" si="0"/>
         <v>0.34917537304552704</v>
       </c>
-      <c r="AD6" s="50">
+      <c r="AD5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="50">
+      <c r="AE5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="50">
+      <c r="AF5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="50">
+      <c r="AG5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="50">
+      <c r="AH5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="50">
+      <c r="AI5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="50">
+      <c r="AJ5">
         <f t="shared" si="0"/>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AK6" s="50">
+      <c r="AK5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL6" s="50">
+      <c r="AL5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM6" s="50">
+      <c r="AM5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN6" s="50">
+      <c r="AN5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO6" s="50">
+      <c r="AO5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP6" s="50">
+      <c r="AP5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ6" s="50">
+      <c r="AQ5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="50">
-        <f t="shared" ref="B7:AQ7" si="1">B5</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="50">
-        <f t="shared" si="1"/>
-        <v>0.55991337252195439</v>
-      </c>
-      <c r="W7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="50">
-        <f t="shared" si="1"/>
-        <v>0.34917537304552704</v>
-      </c>
-      <c r="AD7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="50">
-        <f t="shared" si="1"/>
-        <v>9.0911254432518629E-2</v>
-      </c>
-      <c r="AK7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AM7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AN7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AO7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A9" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="52"/>
-      <c r="AQ9" s="52"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="N10" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="P10" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="R10" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="S10" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="V10" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="X10" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA10" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB10" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD10" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE10" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG10" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH10" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI10" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ10" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK10" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL10" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM10" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN10" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP10" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ10" s="51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="P11" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q11" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="R11" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="S11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="V11" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="X11" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA11" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB11" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD11" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE11" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG11" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH11" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI11" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ11" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK11" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL11" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM11" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN11" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP11" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ11" s="51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A1:AQ6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="10.7265625" customWidth="1"/>
-    <col min="27" max="27" width="13.08984375" customWidth="1"/>
-    <col min="28" max="43" width="10.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q1" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="S1" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA1" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB1" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC1" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH1" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ1" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK1" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL1" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM1" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN1" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO1" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP1" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ1" s="51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
-        <v>0.20535714285714285</v>
-      </c>
-      <c r="V2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
-        <v>0.66964285714285687</v>
-      </c>
-      <c r="W2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
-        <v>0.12499999999999986</v>
-      </c>
-      <c r="Z2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AK2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
-        <v>0.41966165941316863</v>
-      </c>
-      <c r="W3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
-        <v>0.41367167392016474</v>
-      </c>
-      <c r="Z3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AK3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
-        <v>0.55991337252195439</v>
-      </c>
-      <c r="W4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
-        <v>0.34917537304552704</v>
-      </c>
-      <c r="Z4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
-        <v>9.0911254432518629E-2</v>
-      </c>
-      <c r="AK4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
-        <v>0.55991337252195439</v>
-      </c>
-      <c r="W5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
-        <v>0.34917537304552704</v>
-      </c>
-      <c r="Z5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
-        <v>9.0911254432518629E-2</v>
-      </c>
-      <c r="AK5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!C$1)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!D$1)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!H$1)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!M$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!N$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!O$1)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!P$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Q$1)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!R$1)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!S$1)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!T$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!U$1)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!V$1)</f>
+      <c r="B6">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:AQ6" si="6">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6" si="7">D4</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6" si="8">M4</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6" si="9">P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6" si="10">R4</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
         <v>0.55991337252195439</v>
       </c>
-      <c r="W6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!W$1)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!X$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Y$1)</f>
+      <c r="W6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AB6" si="11">AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="6"/>
         <v>0.34917537304552704</v>
       </c>
-      <c r="Z6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!Z$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AA$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AB$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AC$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AD$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AE$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AF$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AG$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AH$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AI$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AJ$1)</f>
+      <c r="AD6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="6"/>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AK6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AK$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AL$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AM$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AN6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AN$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AO6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AO$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AP6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AP$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="50">
-        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$11:$AQ$11,SoHPCCbRIC!AQ$1)</f>
+      <c r="AK6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:AQ7" si="12">C2</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="12"/>
+        <v>0.20535714285714285</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="12"/>
+        <v>0.66964285714285687</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="12"/>
+        <v>0.12499999999999986</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:AQ8" si="13">C3</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="13"/>
+        <v>0.41966165941316863</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="13"/>
+        <v>0.41367167392016474</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="13"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
